--- a/data/cleanedData/gdp.xlsx
+++ b/data/cleanedData/gdp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AZ_DATEN\GitHub\Swinburne-COS30045-Data-Vis-Project\data\cleanedData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\Downloads\DV\Swinburne-COS30045-Data-Vis-Project\data\cleanedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4360CAC8-EB02-4864-8EB3-80AFA057917E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED651D2-3B50-4A59-844D-7DCD10743D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>1980</t>
   </si>
@@ -235,6 +235,99 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Congo</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -316,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -332,6 +425,9 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,15 +717,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ29"/>
+  <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -888,7 +984,7 @@
         <v>1646.96078854807</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1019,7 +1115,7 @@
         <v>567.98728391317695</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1150,7 +1246,7 @@
         <v>719.77149747076396</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
@@ -1281,7 +1377,7 @@
         <v>2133.0847218731201</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -1412,7 +1508,7 @@
         <v>906.03371708733505</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -1543,7 +1639,7 @@
         <v>409.26227704448598</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -1674,7 +1770,7 @@
         <v>320.20911894570298</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
@@ -1805,7 +1901,7 @@
         <v>3648.0777798121399</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
@@ -1936,7 +2032,7 @@
         <v>5153.1370902431399</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
@@ -2067,7 +2163,7 @@
         <v>348.97645551834199</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
@@ -2198,7 +2294,7 @@
         <v>23.083729558369399</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
@@ -2329,7 +2425,7 @@
         <v>574.38715031777804</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
@@ -2460,7 +2556,7 @@
         <v>433.31836089928601</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
@@ -2591,7 +2687,7 @@
         <v>2950.8401855370898</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
@@ -2722,7 +2818,7 @@
         <v>5599.0317910889198</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
@@ -2853,7 +2949,7 @@
         <v>2514.52065467086</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -2984,7 +3080,7 @@
         <v>88.295108871260894</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -3115,7 +3211,7 @@
         <v>2677.5224068511802</v>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -3246,7 +3342,7 @@
         <v>1186.87018570552</v>
       </c>
     </row>
-    <row r="21" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
@@ -3377,7 +3473,7 @@
         <v>246.334269586327</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -3508,7 +3604,7 @@
         <v>482.47158560769202</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
@@ -3639,7 +3735,7 @@
         <v>401.86305035048099</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -3770,7 +3866,7 @@
         <v>2068.30438986739</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>65</v>
       </c>
@@ -3901,7 +3997,7 @@
         <v>660.10250676822795</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>66</v>
       </c>
@@ -4032,7 +4128,7 @@
         <v>710.31865736779298</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
@@ -4163,7 +4259,7 @@
         <v>2662.2131063163301</v>
       </c>
     </row>
-    <row r="28" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
         <v>68</v>
       </c>
@@ -4294,7 +4390,7 @@
         <v>3541.7806692808199</v>
       </c>
     </row>
-    <row r="29" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:43" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
         <v>69</v>
       </c>
@@ -4423,6 +4519,4460 @@
       </c>
       <c r="AQ29" s="3">
         <v>23594.030999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30">
+        <v>1226664400</v>
+      </c>
+      <c r="C30">
+        <v>1225039500</v>
+      </c>
+      <c r="D30">
+        <v>1240309100</v>
+      </c>
+      <c r="E30">
+        <v>1262264000</v>
+      </c>
+      <c r="F30">
+        <v>1284791600</v>
+      </c>
+      <c r="G30">
+        <v>1314617100</v>
+      </c>
+      <c r="H30">
+        <v>1357385900</v>
+      </c>
+      <c r="I30">
+        <v>1432681600</v>
+      </c>
+      <c r="J30">
+        <v>1505667200</v>
+      </c>
+      <c r="K30">
+        <v>1578346200</v>
+      </c>
+      <c r="L30">
+        <v>1638029600</v>
+      </c>
+      <c r="M30">
+        <v>1679733900</v>
+      </c>
+      <c r="N30">
+        <v>1695342200</v>
+      </c>
+      <c r="O30">
+        <v>1677855000</v>
+      </c>
+      <c r="P30">
+        <v>1717841400</v>
+      </c>
+      <c r="Q30">
+        <v>1765210900</v>
+      </c>
+      <c r="R30">
+        <v>1847288600</v>
+      </c>
+      <c r="S30">
+        <v>2014794600</v>
+      </c>
+      <c r="T30">
+        <v>2079163100</v>
+      </c>
+      <c r="U30">
+        <v>2164389600</v>
+      </c>
+      <c r="V30">
+        <v>2240757200</v>
+      </c>
+      <c r="W30">
+        <v>2422692400</v>
+      </c>
+      <c r="X30">
+        <v>2532836600</v>
+      </c>
+      <c r="Y30">
+        <v>2753046500</v>
+      </c>
+      <c r="Z30">
+        <v>2977025500</v>
+      </c>
+      <c r="AA30">
+        <v>3137719300</v>
+      </c>
+      <c r="AB30">
+        <v>3288602600</v>
+      </c>
+      <c r="AC30">
+        <v>3339680800</v>
+      </c>
+      <c r="AD30">
+        <v>3154021600</v>
+      </c>
+      <c r="AE30">
+        <v>2986768600</v>
+      </c>
+      <c r="AF30">
+        <v>2927781400</v>
+      </c>
+      <c r="AG30">
+        <v>2927545000</v>
+      </c>
+      <c r="AH30">
+        <v>2781916000</v>
+      </c>
+      <c r="AI30">
+        <v>2683224800</v>
+      </c>
+      <c r="AJ30">
+        <v>2750425300</v>
+      </c>
+      <c r="AK30">
+        <v>2789870000</v>
+      </c>
+      <c r="AL30">
+        <v>2893365500</v>
+      </c>
+      <c r="AM30">
+        <v>2903378400</v>
+      </c>
+      <c r="AN30">
+        <v>2949506300</v>
+      </c>
+      <c r="AO30">
+        <v>3008955100</v>
+      </c>
+      <c r="AP30">
+        <v>2672435500</v>
+      </c>
+      <c r="AQ30">
+        <v>2911602700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31">
+        <v>35654197000</v>
+      </c>
+      <c r="C31">
+        <v>38233403000</v>
+      </c>
+      <c r="D31">
+        <v>39049430000</v>
+      </c>
+      <c r="E31">
+        <v>40564957000</v>
+      </c>
+      <c r="F31">
+        <v>42513416000</v>
+      </c>
+      <c r="G31">
+        <v>43934220000</v>
+      </c>
+      <c r="H31">
+        <v>45767766000</v>
+      </c>
+      <c r="I31">
+        <v>47494308000</v>
+      </c>
+      <c r="J31">
+        <v>48641892000</v>
+      </c>
+      <c r="K31">
+        <v>50021660000</v>
+      </c>
+      <c r="L31">
+        <v>52834010000</v>
+      </c>
+      <c r="M31">
+        <v>54675395000</v>
+      </c>
+      <c r="N31">
+        <v>57651204000</v>
+      </c>
+      <c r="O31">
+        <v>60367475000</v>
+      </c>
+      <c r="P31">
+        <v>62715847000</v>
+      </c>
+      <c r="Q31">
+        <v>65927696000</v>
+      </c>
+      <c r="R31">
+        <v>68909556000</v>
+      </c>
+      <c r="S31">
+        <v>72003530000</v>
+      </c>
+      <c r="T31">
+        <v>75731165000</v>
+      </c>
+      <c r="U31">
+        <v>79267930000</v>
+      </c>
+      <c r="V31">
+        <v>83463815000</v>
+      </c>
+      <c r="W31">
+        <v>87701510000</v>
+      </c>
+      <c r="X31">
+        <v>91063220000</v>
+      </c>
+      <c r="Y31">
+        <v>95379220000</v>
+      </c>
+      <c r="Z31">
+        <v>100376650000</v>
+      </c>
+      <c r="AA31">
+        <v>106937210000</v>
+      </c>
+      <c r="AB31">
+        <v>114071960000</v>
+      </c>
+      <c r="AC31">
+        <v>122123840000</v>
+      </c>
+      <c r="AD31">
+        <v>129468110000</v>
+      </c>
+      <c r="AE31">
+        <v>135999940000</v>
+      </c>
+      <c r="AF31">
+        <v>143577560000</v>
+      </c>
+      <c r="AG31">
+        <v>152858970000</v>
+      </c>
+      <c r="AH31">
+        <v>162827600000</v>
+      </c>
+      <c r="AI31">
+        <v>172619420000</v>
+      </c>
+      <c r="AJ31">
+        <v>183081980000</v>
+      </c>
+      <c r="AK31">
+        <v>195078680000</v>
+      </c>
+      <c r="AL31">
+        <v>208955560000</v>
+      </c>
+      <c r="AM31">
+        <v>222726260000</v>
+      </c>
+      <c r="AN31">
+        <v>239028500000</v>
+      </c>
+      <c r="AO31">
+        <v>257868530000</v>
+      </c>
+      <c r="AP31">
+        <v>266759900000</v>
+      </c>
+      <c r="AQ31">
+        <v>285269500000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32">
+        <v>163460690</v>
+      </c>
+      <c r="C32">
+        <v>188179700</v>
+      </c>
+      <c r="D32">
+        <v>194652660</v>
+      </c>
+      <c r="E32">
+        <v>214956900</v>
+      </c>
+      <c r="F32">
+        <v>224751760</v>
+      </c>
+      <c r="G32">
+        <v>233805950</v>
+      </c>
+      <c r="H32">
+        <v>260441580</v>
+      </c>
+      <c r="I32">
+        <v>336111140</v>
+      </c>
+      <c r="J32">
+        <v>352134820</v>
+      </c>
+      <c r="K32">
+        <v>378036320</v>
+      </c>
+      <c r="L32">
+        <v>417288300</v>
+      </c>
+      <c r="M32">
+        <v>415586270</v>
+      </c>
+      <c r="N32">
+        <v>434706940</v>
+      </c>
+      <c r="O32">
+        <v>443341800</v>
+      </c>
+      <c r="P32">
+        <v>465293900</v>
+      </c>
+      <c r="Q32">
+        <v>498209300</v>
+      </c>
+      <c r="R32">
+        <v>525935550</v>
+      </c>
+      <c r="S32">
+        <v>554198460</v>
+      </c>
+      <c r="T32">
+        <v>586973950</v>
+      </c>
+      <c r="U32">
+        <v>633837760</v>
+      </c>
+      <c r="V32">
+        <v>655103400</v>
+      </c>
+      <c r="W32">
+        <v>709797760</v>
+      </c>
+      <c r="X32">
+        <v>787820740</v>
+      </c>
+      <c r="Y32">
+        <v>849454340</v>
+      </c>
+      <c r="Z32">
+        <v>900495800</v>
+      </c>
+      <c r="AA32">
+        <v>966117200</v>
+      </c>
+      <c r="AB32">
+        <v>1033742850</v>
+      </c>
+      <c r="AC32">
+        <v>1223546900</v>
+      </c>
+      <c r="AD32">
+        <v>1282270600</v>
+      </c>
+      <c r="AE32">
+        <v>1368802400</v>
+      </c>
+      <c r="AF32">
+        <v>1532318200</v>
+      </c>
+      <c r="AG32">
+        <v>1654637300</v>
+      </c>
+      <c r="AH32">
+        <v>1739328300</v>
+      </c>
+      <c r="AI32">
+        <v>1776201500</v>
+      </c>
+      <c r="AJ32">
+        <v>1878803700</v>
+      </c>
+      <c r="AK32">
+        <v>2003598200</v>
+      </c>
+      <c r="AL32">
+        <v>2166431200</v>
+      </c>
+      <c r="AM32">
+        <v>2267210200</v>
+      </c>
+      <c r="AN32">
+        <v>2336476400</v>
+      </c>
+      <c r="AO32">
+        <v>2470944500</v>
+      </c>
+      <c r="AP32">
+        <v>2223610400</v>
+      </c>
+      <c r="AQ32">
+        <v>2314503200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33">
+        <v>11833372000</v>
+      </c>
+      <c r="C33">
+        <v>11865987000</v>
+      </c>
+      <c r="D33">
+        <v>11398616000</v>
+      </c>
+      <c r="E33">
+        <v>10937870000</v>
+      </c>
+      <c r="F33">
+        <v>10915922000</v>
+      </c>
+      <c r="G33">
+        <v>10732929000</v>
+      </c>
+      <c r="H33">
+        <v>10456675000</v>
+      </c>
+      <c r="I33">
+        <v>10714274000</v>
+      </c>
+      <c r="J33">
+        <v>11026006000</v>
+      </c>
+      <c r="K33">
+        <v>11443906000</v>
+      </c>
+      <c r="L33">
+        <v>11974420000</v>
+      </c>
+      <c r="M33">
+        <v>12605057000</v>
+      </c>
+      <c r="N33">
+        <v>12812599000</v>
+      </c>
+      <c r="O33">
+        <v>13359607000</v>
+      </c>
+      <c r="P33">
+        <v>13983135000</v>
+      </c>
+      <c r="Q33">
+        <v>14637305000</v>
+      </c>
+      <c r="R33">
+        <v>15275688000</v>
+      </c>
+      <c r="S33">
+        <v>16032477000</v>
+      </c>
+      <c r="T33">
+        <v>16838808000</v>
+      </c>
+      <c r="U33">
+        <v>16910689000</v>
+      </c>
+      <c r="V33">
+        <v>17334778000</v>
+      </c>
+      <c r="W33">
+        <v>17626660000</v>
+      </c>
+      <c r="X33">
+        <v>18064783000</v>
+      </c>
+      <c r="Y33">
+        <v>18554580000</v>
+      </c>
+      <c r="Z33">
+        <v>19328918000</v>
+      </c>
+      <c r="AA33">
+        <v>20183534000</v>
+      </c>
+      <c r="AB33">
+        <v>21151740000</v>
+      </c>
+      <c r="AC33">
+        <v>22117186000</v>
+      </c>
+      <c r="AD33">
+        <v>23477060000</v>
+      </c>
+      <c r="AE33">
+        <v>24265185000</v>
+      </c>
+      <c r="AF33">
+        <v>25266543000</v>
+      </c>
+      <c r="AG33">
+        <v>26581436000</v>
+      </c>
+      <c r="AH33">
+        <v>27943010000</v>
+      </c>
+      <c r="AI33">
+        <v>29842020000</v>
+      </c>
+      <c r="AJ33">
+        <v>31471565000</v>
+      </c>
+      <c r="AK33">
+        <v>33000198000</v>
+      </c>
+      <c r="AL33">
+        <v>34407300000</v>
+      </c>
+      <c r="AM33">
+        <v>35850756000</v>
+      </c>
+      <c r="AN33">
+        <v>37364957000</v>
+      </c>
+      <c r="AO33">
+        <v>38193230000</v>
+      </c>
+      <c r="AP33">
+        <v>34855950000</v>
+      </c>
+      <c r="AQ33">
+        <v>36984185000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34">
+        <v>1877731700</v>
+      </c>
+      <c r="C34">
+        <v>2047945500</v>
+      </c>
+      <c r="D34">
+        <v>2297088800</v>
+      </c>
+      <c r="E34">
+        <v>2599081000</v>
+      </c>
+      <c r="F34">
+        <v>2821182500</v>
+      </c>
+      <c r="G34">
+        <v>3022199300</v>
+      </c>
+      <c r="H34">
+        <v>3269201400</v>
+      </c>
+      <c r="I34">
+        <v>3657645600</v>
+      </c>
+      <c r="J34">
+        <v>4369056300</v>
+      </c>
+      <c r="K34">
+        <v>4939629000</v>
+      </c>
+      <c r="L34">
+        <v>5274181600</v>
+      </c>
+      <c r="M34">
+        <v>5667567600</v>
+      </c>
+      <c r="N34">
+        <v>5832894500</v>
+      </c>
+      <c r="O34">
+        <v>5944659000</v>
+      </c>
+      <c r="P34">
+        <v>6160326000</v>
+      </c>
+      <c r="Q34">
+        <v>6593422300</v>
+      </c>
+      <c r="R34">
+        <v>6977805300</v>
+      </c>
+      <c r="S34">
+        <v>7558770000</v>
+      </c>
+      <c r="T34">
+        <v>7592305700</v>
+      </c>
+      <c r="U34">
+        <v>8326272000</v>
+      </c>
+      <c r="V34">
+        <v>8491773000</v>
+      </c>
+      <c r="W34">
+        <v>8513051000</v>
+      </c>
+      <c r="X34">
+        <v>9029754000</v>
+      </c>
+      <c r="Y34">
+        <v>9447460000</v>
+      </c>
+      <c r="Z34">
+        <v>9703091000</v>
+      </c>
+      <c r="AA34">
+        <v>10145227000</v>
+      </c>
+      <c r="AB34">
+        <v>10993761000</v>
+      </c>
+      <c r="AC34">
+        <v>11630581000</v>
+      </c>
+      <c r="AD34">
+        <v>12008816000</v>
+      </c>
+      <c r="AE34">
+        <v>10310261000</v>
+      </c>
+      <c r="AF34">
+        <v>11353887000</v>
+      </c>
+      <c r="AG34">
+        <v>12130326000</v>
+      </c>
+      <c r="AH34">
+        <v>12109595000</v>
+      </c>
+      <c r="AI34">
+        <v>13454102000</v>
+      </c>
+      <c r="AJ34">
+        <v>14220577000</v>
+      </c>
+      <c r="AK34">
+        <v>13530738000</v>
+      </c>
+      <c r="AL34">
+        <v>14505198000</v>
+      </c>
+      <c r="AM34">
+        <v>15101805000</v>
+      </c>
+      <c r="AN34">
+        <v>15734544000</v>
+      </c>
+      <c r="AO34">
+        <v>16211711000</v>
+      </c>
+      <c r="AP34">
+        <v>14797010000</v>
+      </c>
+      <c r="AQ34">
+        <v>16479434000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35">
+        <v>784558900000</v>
+      </c>
+      <c r="C35">
+        <v>751215200000</v>
+      </c>
+      <c r="D35">
+        <v>757450300000</v>
+      </c>
+      <c r="E35">
+        <v>735257000000</v>
+      </c>
+      <c r="F35">
+        <v>774960840000</v>
+      </c>
+      <c r="G35">
+        <v>835795300000</v>
+      </c>
+      <c r="H35">
+        <v>898396300000</v>
+      </c>
+      <c r="I35">
+        <v>930109700000</v>
+      </c>
+      <c r="J35">
+        <v>929551700000</v>
+      </c>
+      <c r="K35">
+        <v>958925500000</v>
+      </c>
+      <c r="L35">
+        <v>917212230000</v>
+      </c>
+      <c r="M35">
+        <v>926679560000</v>
+      </c>
+      <c r="N35">
+        <v>921637800000</v>
+      </c>
+      <c r="O35">
+        <v>967025560000</v>
+      </c>
+      <c r="P35">
+        <v>1023624350000</v>
+      </c>
+      <c r="Q35">
+        <v>1066860150000</v>
+      </c>
+      <c r="R35">
+        <v>1090425600000</v>
+      </c>
+      <c r="S35">
+        <v>1127443900000</v>
+      </c>
+      <c r="T35">
+        <v>1131255700000</v>
+      </c>
+      <c r="U35">
+        <v>1136549300000</v>
+      </c>
+      <c r="V35">
+        <v>1186420500000</v>
+      </c>
+      <c r="W35">
+        <v>1202910500000</v>
+      </c>
+      <c r="X35">
+        <v>1239641000000</v>
+      </c>
+      <c r="Y35">
+        <v>1253783100000</v>
+      </c>
+      <c r="Z35">
+        <v>1326000600000</v>
+      </c>
+      <c r="AA35">
+        <v>1368460900000</v>
+      </c>
+      <c r="AB35">
+        <v>1422679200000</v>
+      </c>
+      <c r="AC35">
+        <v>1509033900000</v>
+      </c>
+      <c r="AD35">
+        <v>1585907100000</v>
+      </c>
+      <c r="AE35">
+        <v>1583911800000</v>
+      </c>
+      <c r="AF35">
+        <v>1703152300000</v>
+      </c>
+      <c r="AG35">
+        <v>1770842800000</v>
+      </c>
+      <c r="AH35">
+        <v>1804863800000</v>
+      </c>
+      <c r="AI35">
+        <v>1859096700000</v>
+      </c>
+      <c r="AJ35">
+        <v>1868465700000</v>
+      </c>
+      <c r="AK35">
+        <v>1802214300000</v>
+      </c>
+      <c r="AL35">
+        <v>1743175300000</v>
+      </c>
+      <c r="AM35">
+        <v>1766235300000</v>
+      </c>
+      <c r="AN35">
+        <v>1797739000000</v>
+      </c>
+      <c r="AO35">
+        <v>1819685400000</v>
+      </c>
+      <c r="AP35">
+        <v>1749105600000</v>
+      </c>
+      <c r="AQ35">
+        <v>1829904300000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36">
+        <v>11114266000</v>
+      </c>
+      <c r="C36">
+        <v>13012879000</v>
+      </c>
+      <c r="D36">
+        <v>13990954000</v>
+      </c>
+      <c r="E36">
+        <v>14951689000</v>
+      </c>
+      <c r="F36">
+        <v>16069264000</v>
+      </c>
+      <c r="G36">
+        <v>17364955000</v>
+      </c>
+      <c r="H36">
+        <v>18540851000</v>
+      </c>
+      <c r="I36">
+        <v>18142845000</v>
+      </c>
+      <c r="J36">
+        <v>16723415000</v>
+      </c>
+      <c r="K36">
+        <v>16419196000</v>
+      </c>
+      <c r="L36">
+        <v>15416690000</v>
+      </c>
+      <c r="M36">
+        <v>14829529000</v>
+      </c>
+      <c r="N36">
+        <v>14369814000</v>
+      </c>
+      <c r="O36">
+        <v>13229990000</v>
+      </c>
+      <c r="P36">
+        <v>13478291000</v>
+      </c>
+      <c r="Q36">
+        <v>13868354000</v>
+      </c>
+      <c r="R36">
+        <v>14452915000</v>
+      </c>
+      <c r="S36">
+        <v>15107244000</v>
+      </c>
+      <c r="T36">
+        <v>15821142000</v>
+      </c>
+      <c r="U36">
+        <v>16534881000</v>
+      </c>
+      <c r="V36">
+        <v>17168567000</v>
+      </c>
+      <c r="W36">
+        <v>17910980000</v>
+      </c>
+      <c r="X36">
+        <v>18712860000</v>
+      </c>
+      <c r="Y36">
+        <v>19733301000</v>
+      </c>
+      <c r="Z36">
+        <v>21124274000</v>
+      </c>
+      <c r="AA36">
+        <v>21594980000</v>
+      </c>
+      <c r="AB36">
+        <v>22417660000</v>
+      </c>
+      <c r="AC36">
+        <v>23387804000</v>
+      </c>
+      <c r="AD36">
+        <v>24053813000</v>
+      </c>
+      <c r="AE36">
+        <v>24674222000</v>
+      </c>
+      <c r="AF36">
+        <v>25389533000</v>
+      </c>
+      <c r="AG36">
+        <v>26247500000</v>
+      </c>
+      <c r="AH36">
+        <v>27461704000</v>
+      </c>
+      <c r="AI36">
+        <v>28833560000</v>
+      </c>
+      <c r="AJ36">
+        <v>30482788000</v>
+      </c>
+      <c r="AK36">
+        <v>32210233000</v>
+      </c>
+      <c r="AL36">
+        <v>33671223000</v>
+      </c>
+      <c r="AM36">
+        <v>34863580000</v>
+      </c>
+      <c r="AN36">
+        <v>36242612000</v>
+      </c>
+      <c r="AO36">
+        <v>37502067000</v>
+      </c>
+      <c r="AP36">
+        <v>37599547000</v>
+      </c>
+      <c r="AQ36">
+        <v>38971900000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37">
+        <v>1347429200</v>
+      </c>
+      <c r="C37">
+        <v>1326618800</v>
+      </c>
+      <c r="D37">
+        <v>1428977800</v>
+      </c>
+      <c r="E37">
+        <v>1312851700</v>
+      </c>
+      <c r="F37">
+        <v>1437332600</v>
+      </c>
+      <c r="G37">
+        <v>1493779800</v>
+      </c>
+      <c r="H37">
+        <v>1547227000</v>
+      </c>
+      <c r="I37">
+        <v>1470809600</v>
+      </c>
+      <c r="J37">
+        <v>1495962900</v>
+      </c>
+      <c r="K37">
+        <v>1525542100</v>
+      </c>
+      <c r="L37">
+        <v>1492780700</v>
+      </c>
+      <c r="M37">
+        <v>1484532500</v>
+      </c>
+      <c r="N37">
+        <v>1389164900</v>
+      </c>
+      <c r="O37">
+        <v>1393822500</v>
+      </c>
+      <c r="P37">
+        <v>1462119000</v>
+      </c>
+      <c r="Q37">
+        <v>1567392300</v>
+      </c>
+      <c r="R37">
+        <v>1504695200</v>
+      </c>
+      <c r="S37">
+        <v>1584443000</v>
+      </c>
+      <c r="T37">
+        <v>1658914200</v>
+      </c>
+      <c r="U37">
+        <v>1718634600</v>
+      </c>
+      <c r="V37">
+        <v>1675850400</v>
+      </c>
+      <c r="W37">
+        <v>1750672800</v>
+      </c>
+      <c r="X37">
+        <v>1813986600</v>
+      </c>
+      <c r="Y37">
+        <v>1716076900</v>
+      </c>
+      <c r="Z37">
+        <v>1818953700</v>
+      </c>
+      <c r="AA37">
+        <v>1835473700</v>
+      </c>
+      <c r="AB37">
+        <v>1923045600</v>
+      </c>
+      <c r="AC37">
+        <v>2011650700</v>
+      </c>
+      <c r="AD37">
+        <v>2052972500</v>
+      </c>
+      <c r="AE37">
+        <v>2229266700</v>
+      </c>
+      <c r="AF37">
+        <v>2332500000</v>
+      </c>
+      <c r="AG37">
+        <v>2430339300</v>
+      </c>
+      <c r="AH37">
+        <v>2553163000</v>
+      </c>
+      <c r="AI37">
+        <v>1624016500</v>
+      </c>
+      <c r="AJ37">
+        <v>1625333000</v>
+      </c>
+      <c r="AK37">
+        <v>1695825700</v>
+      </c>
+      <c r="AL37">
+        <v>1776382800</v>
+      </c>
+      <c r="AM37">
+        <v>1856804600</v>
+      </c>
+      <c r="AN37">
+        <v>1927167100</v>
+      </c>
+      <c r="AO37">
+        <v>1986909300</v>
+      </c>
+      <c r="AP37">
+        <v>2004791600</v>
+      </c>
+      <c r="AQ37">
+        <v>2022834700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38">
+        <v>1504033800</v>
+      </c>
+      <c r="C38">
+        <v>1519719700</v>
+      </c>
+      <c r="D38">
+        <v>1600973000</v>
+      </c>
+      <c r="E38">
+        <v>1851985200</v>
+      </c>
+      <c r="F38">
+        <v>1889930500</v>
+      </c>
+      <c r="G38">
+        <v>2301798700</v>
+      </c>
+      <c r="H38">
+        <v>2207847000</v>
+      </c>
+      <c r="I38">
+        <v>2155105800</v>
+      </c>
+      <c r="J38">
+        <v>2488767000</v>
+      </c>
+      <c r="K38">
+        <v>2610336500</v>
+      </c>
+      <c r="L38">
+        <v>2501264400</v>
+      </c>
+      <c r="M38">
+        <v>2714750700</v>
+      </c>
+      <c r="N38">
+        <v>2931970000</v>
+      </c>
+      <c r="O38">
+        <v>2471362300</v>
+      </c>
+      <c r="P38">
+        <v>2721881600</v>
+      </c>
+      <c r="Q38">
+        <v>2755539000</v>
+      </c>
+      <c r="R38">
+        <v>2816559600</v>
+      </c>
+      <c r="S38">
+        <v>2975790600</v>
+      </c>
+      <c r="T38">
+        <v>3182655200</v>
+      </c>
+      <c r="U38">
+        <v>3160922400</v>
+      </c>
+      <c r="V38">
+        <v>3133116400</v>
+      </c>
+      <c r="W38">
+        <v>3498379300</v>
+      </c>
+      <c r="X38">
+        <v>3795434000</v>
+      </c>
+      <c r="Y38">
+        <v>4354185000</v>
+      </c>
+      <c r="Z38">
+        <v>5818470400</v>
+      </c>
+      <c r="AA38">
+        <v>6826959000</v>
+      </c>
+      <c r="AB38">
+        <v>6871215000</v>
+      </c>
+      <c r="AC38">
+        <v>7096007000</v>
+      </c>
+      <c r="AD38">
+        <v>7312626000</v>
+      </c>
+      <c r="AE38">
+        <v>7621050400</v>
+      </c>
+      <c r="AF38">
+        <v>8653710000</v>
+      </c>
+      <c r="AG38">
+        <v>8660881000</v>
+      </c>
+      <c r="AH38">
+        <v>9430191000</v>
+      </c>
+      <c r="AI38">
+        <v>9967712000</v>
+      </c>
+      <c r="AJ38">
+        <v>10655483000</v>
+      </c>
+      <c r="AK38">
+        <v>10950392000</v>
+      </c>
+      <c r="AL38">
+        <v>10265387000</v>
+      </c>
+      <c r="AM38">
+        <v>9958586000</v>
+      </c>
+      <c r="AN38">
+        <v>10195006000</v>
+      </c>
+      <c r="AO38">
+        <v>10526057000</v>
+      </c>
+      <c r="AP38">
+        <v>10357639000</v>
+      </c>
+      <c r="AQ38">
+        <v>10233349000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39">
+        <v>21184094000</v>
+      </c>
+      <c r="C39">
+        <v>21925644000</v>
+      </c>
+      <c r="D39">
+        <v>21969674000</v>
+      </c>
+      <c r="E39">
+        <v>21112805000</v>
+      </c>
+      <c r="F39">
+        <v>20542493000</v>
+      </c>
+      <c r="G39">
+        <v>21467156000</v>
+      </c>
+      <c r="H39">
+        <v>22166845000</v>
+      </c>
+      <c r="I39">
+        <v>22089488000</v>
+      </c>
+      <c r="J39">
+        <v>22340532000</v>
+      </c>
+      <c r="K39">
+        <v>22999132000</v>
+      </c>
+      <c r="L39">
+        <v>22747083000</v>
+      </c>
+      <c r="M39">
+        <v>22756393000</v>
+      </c>
+      <c r="N39">
+        <v>22700739000</v>
+      </c>
+      <c r="O39">
+        <v>22657044000</v>
+      </c>
+      <c r="P39">
+        <v>22840840000</v>
+      </c>
+      <c r="Q39">
+        <v>24468419000</v>
+      </c>
+      <c r="R39">
+        <v>26359663000</v>
+      </c>
+      <c r="S39">
+        <v>28903066000</v>
+      </c>
+      <c r="T39">
+        <v>30135464000</v>
+      </c>
+      <c r="U39">
+        <v>30487103000</v>
+      </c>
+      <c r="V39">
+        <v>30406072000</v>
+      </c>
+      <c r="W39">
+        <v>29751122000</v>
+      </c>
+      <c r="X39">
+        <v>28938760000</v>
+      </c>
+      <c r="Y39">
+        <v>27571153000</v>
+      </c>
+      <c r="Z39">
+        <v>28449305000</v>
+      </c>
+      <c r="AA39">
+        <v>28732678000</v>
+      </c>
+      <c r="AB39">
+        <v>29541669000</v>
+      </c>
+      <c r="AC39">
+        <v>29867049000</v>
+      </c>
+      <c r="AD39">
+        <v>31295490000</v>
+      </c>
+      <c r="AE39">
+        <v>32423168000</v>
+      </c>
+      <c r="AF39">
+        <v>34643520000</v>
+      </c>
+      <c r="AG39">
+        <v>32783010000</v>
+      </c>
+      <c r="AH39">
+        <v>35281210000</v>
+      </c>
+      <c r="AI39">
+        <v>39077544000</v>
+      </c>
+      <c r="AJ39">
+        <v>42739892000</v>
+      </c>
+      <c r="AK39">
+        <v>45814637000</v>
+      </c>
+      <c r="AL39">
+        <v>49103766000</v>
+      </c>
+      <c r="AM39">
+        <v>52717625000</v>
+      </c>
+      <c r="AN39">
+        <v>56350020000</v>
+      </c>
+      <c r="AO39">
+        <v>59861590000</v>
+      </c>
+      <c r="AP39">
+        <v>61046145000</v>
+      </c>
+      <c r="AQ39">
+        <v>65342546000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40">
+        <v>35363533000</v>
+      </c>
+      <c r="C40">
+        <v>42326024000</v>
+      </c>
+      <c r="D40">
+        <v>46100760000</v>
+      </c>
+      <c r="E40">
+        <v>48595490000</v>
+      </c>
+      <c r="F40">
+        <v>52448973000</v>
+      </c>
+      <c r="G40">
+        <v>53286412000</v>
+      </c>
+      <c r="H40">
+        <v>53337194000</v>
+      </c>
+      <c r="I40">
+        <v>52055945000</v>
+      </c>
+      <c r="J40">
+        <v>53984900000</v>
+      </c>
+      <c r="K40">
+        <v>54352040000</v>
+      </c>
+      <c r="L40">
+        <v>52749435000</v>
+      </c>
+      <c r="M40">
+        <v>47109100000</v>
+      </c>
+      <c r="N40">
+        <v>41653580000</v>
+      </c>
+      <c r="O40">
+        <v>35456287000</v>
+      </c>
+      <c r="P40">
+        <v>35710480000</v>
+      </c>
+      <c r="Q40">
+        <v>36587962000</v>
+      </c>
+      <c r="R40">
+        <v>39456000000</v>
+      </c>
+      <c r="S40">
+        <v>40554226000</v>
+      </c>
+      <c r="T40">
+        <v>40618766000</v>
+      </c>
+      <c r="U40">
+        <v>43132563000</v>
+      </c>
+      <c r="V40">
+        <v>45683753000</v>
+      </c>
+      <c r="W40">
+        <v>47138790000</v>
+      </c>
+      <c r="X40">
+        <v>47810437000</v>
+      </c>
+      <c r="Y40">
+        <v>49623760000</v>
+      </c>
+      <c r="Z40">
+        <v>52487320000</v>
+      </c>
+      <c r="AA40">
+        <v>58366770000</v>
+      </c>
+      <c r="AB40">
+        <v>65409225000</v>
+      </c>
+      <c r="AC40">
+        <v>70159335000</v>
+      </c>
+      <c r="AD40">
+        <v>73047670000</v>
+      </c>
+      <c r="AE40">
+        <v>74107810000</v>
+      </c>
+      <c r="AF40">
+        <v>75879250000</v>
+      </c>
+      <c r="AG40">
+        <v>78005620000</v>
+      </c>
+      <c r="AH40">
+        <v>80357410000</v>
+      </c>
+      <c r="AI40">
+        <v>82565310000</v>
+      </c>
+      <c r="AJ40">
+        <v>83430244000</v>
+      </c>
+      <c r="AK40">
+        <v>87133000000</v>
+      </c>
+      <c r="AL40">
+        <v>87580656000</v>
+      </c>
+      <c r="AM40">
+        <v>89165040000</v>
+      </c>
+      <c r="AN40">
+        <v>91169900000</v>
+      </c>
+      <c r="AO40">
+        <v>91019610000</v>
+      </c>
+      <c r="AP40">
+        <v>81054474000</v>
+      </c>
+      <c r="AQ40">
+        <v>82070970000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41">
+        <v>26933852000</v>
+      </c>
+      <c r="C41">
+        <v>27566938000</v>
+      </c>
+      <c r="D41">
+        <v>27440771000</v>
+      </c>
+      <c r="E41">
+        <v>27828152000</v>
+      </c>
+      <c r="F41">
+        <v>29370130000</v>
+      </c>
+      <c r="G41">
+        <v>29507539000</v>
+      </c>
+      <c r="H41">
+        <v>30899472000</v>
+      </c>
+      <c r="I41">
+        <v>31726232000</v>
+      </c>
+      <c r="J41">
+        <v>31875465000</v>
+      </c>
+      <c r="K41">
+        <v>31471907000</v>
+      </c>
+      <c r="L41">
+        <v>29404733000</v>
+      </c>
+      <c r="M41">
+        <v>26928546000</v>
+      </c>
+      <c r="N41">
+        <v>24101046000</v>
+      </c>
+      <c r="O41">
+        <v>20854864000</v>
+      </c>
+      <c r="P41">
+        <v>20041525000</v>
+      </c>
+      <c r="Q41">
+        <v>20181815000</v>
+      </c>
+      <c r="R41">
+        <v>19975322000</v>
+      </c>
+      <c r="S41">
+        <v>18853298000</v>
+      </c>
+      <c r="T41">
+        <v>18547091000</v>
+      </c>
+      <c r="U41">
+        <v>17755103000</v>
+      </c>
+      <c r="V41">
+        <v>16528061000</v>
+      </c>
+      <c r="W41">
+        <v>16180944000</v>
+      </c>
+      <c r="X41">
+        <v>16657920000</v>
+      </c>
+      <c r="Y41">
+        <v>17587069000</v>
+      </c>
+      <c r="Z41">
+        <v>18772152000</v>
+      </c>
+      <c r="AA41">
+        <v>19923851000</v>
+      </c>
+      <c r="AB41">
+        <v>20983996000</v>
+      </c>
+      <c r="AC41">
+        <v>22297485000</v>
+      </c>
+      <c r="AD41">
+        <v>23685702000</v>
+      </c>
+      <c r="AE41">
+        <v>24361945000</v>
+      </c>
+      <c r="AF41">
+        <v>26093584000</v>
+      </c>
+      <c r="AG41">
+        <v>27887434000</v>
+      </c>
+      <c r="AH41">
+        <v>29863789000</v>
+      </c>
+      <c r="AI41">
+        <v>32396820000</v>
+      </c>
+      <c r="AJ41">
+        <v>35464892000</v>
+      </c>
+      <c r="AK41">
+        <v>37917704000</v>
+      </c>
+      <c r="AL41">
+        <v>38827504000</v>
+      </c>
+      <c r="AM41">
+        <v>40274584000</v>
+      </c>
+      <c r="AN41">
+        <v>42619015000</v>
+      </c>
+      <c r="AO41">
+        <v>44487660000</v>
+      </c>
+      <c r="AP41">
+        <v>45259706000</v>
+      </c>
+      <c r="AQ41">
+        <v>48065880000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42">
+        <v>33793085000</v>
+      </c>
+      <c r="C42">
+        <v>35689845000</v>
+      </c>
+      <c r="D42">
+        <v>35909284000</v>
+      </c>
+      <c r="E42">
+        <v>35788317000</v>
+      </c>
+      <c r="F42">
+        <v>36727857000</v>
+      </c>
+      <c r="G42">
+        <v>38173100000</v>
+      </c>
+      <c r="H42">
+        <v>39495713000</v>
+      </c>
+      <c r="I42">
+        <v>39393380000</v>
+      </c>
+      <c r="J42">
+        <v>41713830000</v>
+      </c>
+      <c r="K42">
+        <v>42133380000</v>
+      </c>
+      <c r="L42">
+        <v>43683852000</v>
+      </c>
+      <c r="M42">
+        <v>45558477000</v>
+      </c>
+      <c r="N42">
+        <v>46521725000</v>
+      </c>
+      <c r="O42">
+        <v>47439700000</v>
+      </c>
+      <c r="P42">
+        <v>49459802000</v>
+      </c>
+      <c r="Q42">
+        <v>50573910000</v>
+      </c>
+      <c r="R42">
+        <v>51449720000</v>
+      </c>
+      <c r="S42">
+        <v>53676397000</v>
+      </c>
+      <c r="T42">
+        <v>55429750000</v>
+      </c>
+      <c r="U42">
+        <v>52802720000</v>
+      </c>
+      <c r="V42">
+        <v>53379220000</v>
+      </c>
+      <c r="W42">
+        <v>55522734000</v>
+      </c>
+      <c r="X42">
+        <v>57797374000</v>
+      </c>
+      <c r="Y42">
+        <v>59371127000</v>
+      </c>
+      <c r="Z42">
+        <v>64246104000</v>
+      </c>
+      <c r="AA42">
+        <v>67645563000</v>
+      </c>
+      <c r="AB42">
+        <v>70624354000</v>
+      </c>
+      <c r="AC42">
+        <v>72171070000</v>
+      </c>
+      <c r="AD42">
+        <v>76759080000</v>
+      </c>
+      <c r="AE42">
+        <v>77193910000</v>
+      </c>
+      <c r="AF42">
+        <v>79915230000</v>
+      </c>
+      <c r="AG42">
+        <v>86203070000</v>
+      </c>
+      <c r="AH42">
+        <v>91066620000</v>
+      </c>
+      <c r="AI42">
+        <v>95571240000</v>
+      </c>
+      <c r="AJ42">
+        <v>99192310000</v>
+      </c>
+      <c r="AK42">
+        <v>99290380000</v>
+      </c>
+      <c r="AL42">
+        <v>98072700000</v>
+      </c>
+      <c r="AM42">
+        <v>100395440000</v>
+      </c>
+      <c r="AN42">
+        <v>101689830000</v>
+      </c>
+      <c r="AO42">
+        <v>101702140000</v>
+      </c>
+      <c r="AP42">
+        <v>93781975000</v>
+      </c>
+      <c r="AQ42">
+        <v>97753880000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43">
+        <v>62910670000</v>
+      </c>
+      <c r="C43">
+        <v>67533693000</v>
+      </c>
+      <c r="D43">
+        <v>74224370000</v>
+      </c>
+      <c r="E43">
+        <v>78005666000</v>
+      </c>
+      <c r="F43">
+        <v>85607910000</v>
+      </c>
+      <c r="G43">
+        <v>90565894000</v>
+      </c>
+      <c r="H43">
+        <v>94862820000</v>
+      </c>
+      <c r="I43">
+        <v>98498675000</v>
+      </c>
+      <c r="J43">
+        <v>103878000000</v>
+      </c>
+      <c r="K43">
+        <v>108989700000</v>
+      </c>
+      <c r="L43">
+        <v>115166180000</v>
+      </c>
+      <c r="M43">
+        <v>116462270000</v>
+      </c>
+      <c r="N43">
+        <v>121671460000</v>
+      </c>
+      <c r="O43">
+        <v>125200900000</v>
+      </c>
+      <c r="P43">
+        <v>130175345000</v>
+      </c>
+      <c r="Q43">
+        <v>136218680000</v>
+      </c>
+      <c r="R43">
+        <v>143014260000</v>
+      </c>
+      <c r="S43">
+        <v>150869110000</v>
+      </c>
+      <c r="T43">
+        <v>159280820000</v>
+      </c>
+      <c r="U43">
+        <v>168922800000</v>
+      </c>
+      <c r="V43">
+        <v>179683160000</v>
+      </c>
+      <c r="W43">
+        <v>186035420000</v>
+      </c>
+      <c r="X43">
+        <v>190482060000</v>
+      </c>
+      <c r="Y43">
+        <v>196565010000</v>
+      </c>
+      <c r="Z43">
+        <v>204608590000</v>
+      </c>
+      <c r="AA43">
+        <v>213758160000</v>
+      </c>
+      <c r="AB43">
+        <v>228387420000</v>
+      </c>
+      <c r="AC43">
+        <v>244575130000</v>
+      </c>
+      <c r="AD43">
+        <v>262077630000</v>
+      </c>
+      <c r="AE43">
+        <v>274326080000</v>
+      </c>
+      <c r="AF43">
+        <v>288446300000</v>
+      </c>
+      <c r="AG43">
+        <v>293536140000</v>
+      </c>
+      <c r="AH43">
+        <v>300070830000</v>
+      </c>
+      <c r="AI43">
+        <v>306628800000</v>
+      </c>
+      <c r="AJ43">
+        <v>315569800000</v>
+      </c>
+      <c r="AK43">
+        <v>329366570000</v>
+      </c>
+      <c r="AL43">
+        <v>343682970000</v>
+      </c>
+      <c r="AM43">
+        <v>358053120000</v>
+      </c>
+      <c r="AN43">
+        <v>377080480000</v>
+      </c>
+      <c r="AO43">
+        <v>398037420000</v>
+      </c>
+      <c r="AP43">
+        <v>412246050000</v>
+      </c>
+      <c r="AQ43">
+        <v>425960400000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44">
+        <v>22681207000</v>
+      </c>
+      <c r="C44">
+        <v>22827923000</v>
+      </c>
+      <c r="D44">
+        <v>22022076000</v>
+      </c>
+      <c r="E44">
+        <v>21455649000</v>
+      </c>
+      <c r="F44">
+        <v>21562218000</v>
+      </c>
+      <c r="G44">
+        <v>21430831000</v>
+      </c>
+      <c r="H44">
+        <v>21461488000</v>
+      </c>
+      <c r="I44">
+        <v>22222080000</v>
+      </c>
+      <c r="J44">
+        <v>23087049000</v>
+      </c>
+      <c r="K44">
+        <v>23997276000</v>
+      </c>
+      <c r="L44">
+        <v>24741806000</v>
+      </c>
+      <c r="M44">
+        <v>25646924000</v>
+      </c>
+      <c r="N44">
+        <v>26887810000</v>
+      </c>
+      <c r="O44">
+        <v>27943730000</v>
+      </c>
+      <c r="P44">
+        <v>29070907000</v>
+      </c>
+      <c r="Q44">
+        <v>30509494000</v>
+      </c>
+      <c r="R44">
+        <v>31411898000</v>
+      </c>
+      <c r="S44">
+        <v>32782742000</v>
+      </c>
+      <c r="T44">
+        <v>34419757000</v>
+      </c>
+      <c r="U44">
+        <v>35743908000</v>
+      </c>
+      <c r="V44">
+        <v>37033857000</v>
+      </c>
+      <c r="W44">
+        <v>37897700000</v>
+      </c>
+      <c r="X44">
+        <v>39352700000</v>
+      </c>
+      <c r="Y44">
+        <v>40360280000</v>
+      </c>
+      <c r="Z44">
+        <v>41626750000</v>
+      </c>
+      <c r="AA44">
+        <v>42990453000</v>
+      </c>
+      <c r="AB44">
+        <v>45291045000</v>
+      </c>
+      <c r="AC44">
+        <v>48161464000</v>
+      </c>
+      <c r="AD44">
+        <v>49747673000</v>
+      </c>
+      <c r="AE44">
+        <v>49984918000</v>
+      </c>
+      <c r="AF44">
+        <v>51426570000</v>
+      </c>
+      <c r="AG44">
+        <v>53567926000</v>
+      </c>
+      <c r="AH44">
+        <v>55161414000</v>
+      </c>
+      <c r="AI44">
+        <v>57199530000</v>
+      </c>
+      <c r="AJ44">
+        <v>59741463000</v>
+      </c>
+      <c r="AK44">
+        <v>62186185000</v>
+      </c>
+      <c r="AL44">
+        <v>63851410000</v>
+      </c>
+      <c r="AM44">
+        <v>65817940000</v>
+      </c>
+      <c r="AN44">
+        <v>68060270000</v>
+      </c>
+      <c r="AO44">
+        <v>70784260000</v>
+      </c>
+      <c r="AP44">
+        <v>69535560000</v>
+      </c>
+      <c r="AQ44">
+        <v>75085040000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45">
+        <v>150774550000</v>
+      </c>
+      <c r="C45">
+        <v>142185230000</v>
+      </c>
+      <c r="D45">
+        <v>175131330000</v>
+      </c>
+      <c r="E45">
+        <v>194547650000</v>
+      </c>
+      <c r="F45">
+        <v>180657230000</v>
+      </c>
+      <c r="G45">
+        <v>184031280000</v>
+      </c>
+      <c r="H45">
+        <v>166023990000</v>
+      </c>
+      <c r="I45">
+        <v>165738250000</v>
+      </c>
+      <c r="J45">
+        <v>155658060000</v>
+      </c>
+      <c r="K45">
+        <v>165203180000</v>
+      </c>
+      <c r="L45">
+        <v>187662430000</v>
+      </c>
+      <c r="M45">
+        <v>211525880000</v>
+      </c>
+      <c r="N45">
+        <v>218501960000</v>
+      </c>
+      <c r="O45">
+        <v>215287760000</v>
+      </c>
+      <c r="P45">
+        <v>211631570000</v>
+      </c>
+      <c r="Q45">
+        <v>216712940000</v>
+      </c>
+      <c r="R45">
+        <v>230475350000</v>
+      </c>
+      <c r="S45">
+        <v>233587690000</v>
+      </c>
+      <c r="T45">
+        <v>238446330000</v>
+      </c>
+      <c r="U45">
+        <v>243221700000</v>
+      </c>
+      <c r="V45">
+        <v>257439290000</v>
+      </c>
+      <c r="W45">
+        <v>263597670000</v>
+      </c>
+      <c r="X45">
+        <v>284893280000</v>
+      </c>
+      <c r="Y45">
+        <v>309506050000</v>
+      </c>
+      <c r="Z45">
+        <v>322928300000</v>
+      </c>
+      <c r="AA45">
+        <v>333229060000</v>
+      </c>
+      <c r="AB45">
+        <v>349889860000</v>
+      </c>
+      <c r="AC45">
+        <v>378426060000</v>
+      </c>
+      <c r="AD45">
+        <v>379375400000</v>
+      </c>
+      <c r="AE45">
+        <v>383197150000</v>
+      </c>
+      <c r="AF45">
+        <v>405414670000</v>
+      </c>
+      <c r="AG45">
+        <v>416140820000</v>
+      </c>
+      <c r="AH45">
+        <v>400547300000</v>
+      </c>
+      <c r="AI45">
+        <v>394451060000</v>
+      </c>
+      <c r="AJ45">
+        <v>414113560000</v>
+      </c>
+      <c r="AK45">
+        <v>408212930000</v>
+      </c>
+      <c r="AL45">
+        <v>444197240000</v>
+      </c>
+      <c r="AM45">
+        <v>456450440000</v>
+      </c>
+      <c r="AN45">
+        <v>446162670000</v>
+      </c>
+      <c r="AO45">
+        <v>434302750000</v>
+      </c>
+      <c r="AP45">
+        <v>448766280000</v>
+      </c>
+      <c r="AQ45">
+        <v>469947060000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46">
+        <v>39747320000</v>
+      </c>
+      <c r="C46">
+        <v>39457673000</v>
+      </c>
+      <c r="D46">
+        <v>40812642000</v>
+      </c>
+      <c r="E46">
+        <v>35477080000</v>
+      </c>
+      <c r="F46">
+        <v>34950156000</v>
+      </c>
+      <c r="G46">
+        <v>35458298000</v>
+      </c>
+      <c r="H46">
+        <v>37106254000</v>
+      </c>
+      <c r="I46">
+        <v>40559096000</v>
+      </c>
+      <c r="J46">
+        <v>40551375000</v>
+      </c>
+      <c r="K46">
+        <v>39286764000</v>
+      </c>
+      <c r="L46">
+        <v>62001517000</v>
+      </c>
+      <c r="M46">
+        <v>22291340000</v>
+      </c>
+      <c r="N46">
+        <v>29556580000</v>
+      </c>
+      <c r="O46">
+        <v>38509216000</v>
+      </c>
+      <c r="P46">
+        <v>39993570000</v>
+      </c>
+      <c r="Q46">
+        <v>40841440000</v>
+      </c>
+      <c r="R46">
+        <v>45342487000</v>
+      </c>
+      <c r="S46">
+        <v>54972297000</v>
+      </c>
+      <c r="T46">
+        <v>74134045000</v>
+      </c>
+      <c r="U46">
+        <v>87168480000</v>
+      </c>
+      <c r="V46">
+        <v>101918840000</v>
+      </c>
+      <c r="W46">
+        <v>103714130000</v>
+      </c>
+      <c r="X46">
+        <v>95211150000</v>
+      </c>
+      <c r="Y46">
+        <v>60308505000</v>
+      </c>
+      <c r="Z46">
+        <v>92502270000</v>
+      </c>
+      <c r="AA46">
+        <v>94048805000</v>
+      </c>
+      <c r="AB46">
+        <v>99359080000</v>
+      </c>
+      <c r="AC46">
+        <v>101232570000</v>
+      </c>
+      <c r="AD46">
+        <v>109562085000</v>
+      </c>
+      <c r="AE46">
+        <v>113264520000</v>
+      </c>
+      <c r="AF46">
+        <v>120516350000</v>
+      </c>
+      <c r="AG46">
+        <v>129611090000</v>
+      </c>
+      <c r="AH46">
+        <v>147674250000</v>
+      </c>
+      <c r="AI46">
+        <v>158939680000</v>
+      </c>
+      <c r="AJ46">
+        <v>159252800000</v>
+      </c>
+      <c r="AK46">
+        <v>166774110000</v>
+      </c>
+      <c r="AL46">
+        <v>189767880000</v>
+      </c>
+      <c r="AM46">
+        <v>186314570000</v>
+      </c>
+      <c r="AN46">
+        <v>191221830000</v>
+      </c>
+      <c r="AO46">
+        <v>201765390000</v>
+      </c>
+      <c r="AP46">
+        <v>178917080000</v>
+      </c>
+      <c r="AQ46">
+        <v>183896950000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>2258390200000</v>
+      </c>
+      <c r="C47">
+        <v>2354611700000</v>
+      </c>
+      <c r="D47">
+        <v>2431837000000</v>
+      </c>
+      <c r="E47">
+        <v>2520117700000</v>
+      </c>
+      <c r="F47">
+        <v>2631277000000</v>
+      </c>
+      <c r="G47">
+        <v>2767045800000</v>
+      </c>
+      <c r="H47">
+        <v>2858193500000</v>
+      </c>
+      <c r="I47">
+        <v>2991067000000</v>
+      </c>
+      <c r="J47">
+        <v>3190321000000</v>
+      </c>
+      <c r="K47">
+        <v>3347469300000</v>
+      </c>
+      <c r="L47">
+        <v>3509518000000</v>
+      </c>
+      <c r="M47">
+        <v>3633171000000</v>
+      </c>
+      <c r="N47">
+        <v>3665890600000</v>
+      </c>
+      <c r="O47">
+        <v>3649056300000</v>
+      </c>
+      <c r="P47">
+        <v>3688589400000</v>
+      </c>
+      <c r="Q47">
+        <v>3785636200000</v>
+      </c>
+      <c r="R47">
+        <v>3904273000000</v>
+      </c>
+      <c r="S47">
+        <v>3942583000000</v>
+      </c>
+      <c r="T47">
+        <v>3892499200000</v>
+      </c>
+      <c r="U47">
+        <v>3879501000000</v>
+      </c>
+      <c r="V47">
+        <v>3986755400000</v>
+      </c>
+      <c r="W47">
+        <v>4002148500000</v>
+      </c>
+      <c r="X47">
+        <v>4003828000000</v>
+      </c>
+      <c r="Y47">
+        <v>4065291700000</v>
+      </c>
+      <c r="Z47">
+        <v>4154163700000</v>
+      </c>
+      <c r="AA47">
+        <v>4229100700000</v>
+      </c>
+      <c r="AB47">
+        <v>4287139000000</v>
+      </c>
+      <c r="AC47">
+        <v>4350758600000</v>
+      </c>
+      <c r="AD47">
+        <v>4297492800000</v>
+      </c>
+      <c r="AE47">
+        <v>4052826200000</v>
+      </c>
+      <c r="AF47">
+        <v>4218907800000</v>
+      </c>
+      <c r="AG47">
+        <v>4219912300000</v>
+      </c>
+      <c r="AH47">
+        <v>4277925600000</v>
+      </c>
+      <c r="AI47">
+        <v>4363702200000</v>
+      </c>
+      <c r="AJ47">
+        <v>4376627800000</v>
+      </c>
+      <c r="AK47">
+        <v>4444930400000</v>
+      </c>
+      <c r="AL47">
+        <v>4478437700000</v>
+      </c>
+      <c r="AM47">
+        <v>4553466400000</v>
+      </c>
+      <c r="AN47">
+        <v>4580062000000</v>
+      </c>
+      <c r="AO47">
+        <v>4569053500000</v>
+      </c>
+      <c r="AP47">
+        <v>4363130800000</v>
+      </c>
+      <c r="AQ47">
+        <v>4435431000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48">
+        <v>20428055000</v>
+      </c>
+      <c r="C48">
+        <v>21198916000</v>
+      </c>
+      <c r="D48">
+        <v>21518273000</v>
+      </c>
+      <c r="E48">
+        <v>21799959000</v>
+      </c>
+      <c r="F48">
+        <v>22182595000</v>
+      </c>
+      <c r="G48">
+        <v>23136570000</v>
+      </c>
+      <c r="H48">
+        <v>24797210000</v>
+      </c>
+      <c r="I48">
+        <v>26269448000</v>
+      </c>
+      <c r="J48">
+        <v>27898989000</v>
+      </c>
+      <c r="K48">
+        <v>29207550000</v>
+      </c>
+      <c r="L48">
+        <v>30431945000</v>
+      </c>
+      <c r="M48">
+        <v>30869662000</v>
+      </c>
+      <c r="N48">
+        <v>30622861000</v>
+      </c>
+      <c r="O48">
+        <v>30731020000</v>
+      </c>
+      <c r="P48">
+        <v>31540101000</v>
+      </c>
+      <c r="Q48">
+        <v>32929827000</v>
+      </c>
+      <c r="R48">
+        <v>34295374000</v>
+      </c>
+      <c r="S48">
+        <v>34458243000</v>
+      </c>
+      <c r="T48">
+        <v>35591990000</v>
+      </c>
+      <c r="U48">
+        <v>36412527000</v>
+      </c>
+      <c r="V48">
+        <v>36630893000</v>
+      </c>
+      <c r="W48">
+        <v>38015504000</v>
+      </c>
+      <c r="X48">
+        <v>38223397000</v>
+      </c>
+      <c r="Y48">
+        <v>39344288000</v>
+      </c>
+      <c r="Z48">
+        <v>41352536000</v>
+      </c>
+      <c r="AA48">
+        <v>43795096000</v>
+      </c>
+      <c r="AB48">
+        <v>46629730000</v>
+      </c>
+      <c r="AC48">
+        <v>49824207000</v>
+      </c>
+      <c r="AD48">
+        <v>49939940000</v>
+      </c>
+      <c r="AE48">
+        <v>51591420000</v>
+      </c>
+      <c r="AF48">
+        <v>55748903000</v>
+      </c>
+      <c r="AG48">
+        <v>58603864000</v>
+      </c>
+      <c r="AH48">
+        <v>61281290000</v>
+      </c>
+      <c r="AI48">
+        <v>63608656000</v>
+      </c>
+      <c r="AJ48">
+        <v>66801880000</v>
+      </c>
+      <c r="AK48">
+        <v>70120415000</v>
+      </c>
+      <c r="AL48">
+        <v>73074950000</v>
+      </c>
+      <c r="AM48">
+        <v>75879540000</v>
+      </c>
+      <c r="AN48">
+        <v>80165170000</v>
+      </c>
+      <c r="AO48">
+        <v>84264940000</v>
+      </c>
+      <c r="AP48">
+        <v>84054150000</v>
+      </c>
+      <c r="AQ48">
+        <v>90372800000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49">
+        <v>41758163000</v>
+      </c>
+      <c r="C49">
+        <v>44657058000</v>
+      </c>
+      <c r="D49">
+        <v>47311094000</v>
+      </c>
+      <c r="E49">
+        <v>50269090000</v>
+      </c>
+      <c r="F49">
+        <v>54170874000</v>
+      </c>
+      <c r="G49">
+        <v>53615485000</v>
+      </c>
+      <c r="H49">
+        <v>54280640000</v>
+      </c>
+      <c r="I49">
+        <v>57098850000</v>
+      </c>
+      <c r="J49">
+        <v>62773174000</v>
+      </c>
+      <c r="K49">
+        <v>68460175000</v>
+      </c>
+      <c r="L49">
+        <v>74627424000</v>
+      </c>
+      <c r="M49">
+        <v>81750970000</v>
+      </c>
+      <c r="N49">
+        <v>89014630000</v>
+      </c>
+      <c r="O49">
+        <v>97822580000</v>
+      </c>
+      <c r="P49">
+        <v>106834035000</v>
+      </c>
+      <c r="Q49">
+        <v>117334840000</v>
+      </c>
+      <c r="R49">
+        <v>129071500000</v>
+      </c>
+      <c r="S49">
+        <v>138523070000</v>
+      </c>
+      <c r="T49">
+        <v>128328580000</v>
+      </c>
+      <c r="U49">
+        <v>136204894000</v>
+      </c>
+      <c r="V49">
+        <v>148271100000</v>
+      </c>
+      <c r="W49">
+        <v>149038680000</v>
+      </c>
+      <c r="X49">
+        <v>157073330000</v>
+      </c>
+      <c r="Y49">
+        <v>166165510000</v>
+      </c>
+      <c r="Z49">
+        <v>177437250000</v>
+      </c>
+      <c r="AA49">
+        <v>186898450000</v>
+      </c>
+      <c r="AB49">
+        <v>197336450000</v>
+      </c>
+      <c r="AC49">
+        <v>209766250000</v>
+      </c>
+      <c r="AD49">
+        <v>219901670000</v>
+      </c>
+      <c r="AE49">
+        <v>216573400000</v>
+      </c>
+      <c r="AF49">
+        <v>232653640000</v>
+      </c>
+      <c r="AG49">
+        <v>244970110000</v>
+      </c>
+      <c r="AH49">
+        <v>258378450000</v>
+      </c>
+      <c r="AI49">
+        <v>270506020000</v>
+      </c>
+      <c r="AJ49">
+        <v>286754570000</v>
+      </c>
+      <c r="AK49">
+        <v>301354750000</v>
+      </c>
+      <c r="AL49">
+        <v>314764400000</v>
+      </c>
+      <c r="AM49">
+        <v>333060770000</v>
+      </c>
+      <c r="AN49">
+        <v>349191180000</v>
+      </c>
+      <c r="AO49">
+        <v>364601670000</v>
+      </c>
+      <c r="AP49">
+        <v>344422940000</v>
+      </c>
+      <c r="AQ49">
+        <v>355073030000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50">
+        <v>3269193700</v>
+      </c>
+      <c r="C50">
+        <v>3318519600</v>
+      </c>
+      <c r="D50">
+        <v>3073664800</v>
+      </c>
+      <c r="E50">
+        <v>3129632500</v>
+      </c>
+      <c r="F50">
+        <v>3120650000</v>
+      </c>
+      <c r="G50">
+        <v>3753725000</v>
+      </c>
+      <c r="H50">
+        <v>3854798300</v>
+      </c>
+      <c r="I50">
+        <v>3849433900</v>
+      </c>
+      <c r="J50">
+        <v>4133896400</v>
+      </c>
+      <c r="K50">
+        <v>4306585000</v>
+      </c>
+      <c r="L50">
+        <v>4198817500</v>
+      </c>
+      <c r="M50">
+        <v>4691977000</v>
+      </c>
+      <c r="N50">
+        <v>4540958000</v>
+      </c>
+      <c r="O50">
+        <v>4685005300</v>
+      </c>
+      <c r="P50">
+        <v>4862095400</v>
+      </c>
+      <c r="Q50">
+        <v>4906876400</v>
+      </c>
+      <c r="R50">
+        <v>5253095000</v>
+      </c>
+      <c r="S50">
+        <v>5506768000</v>
+      </c>
+      <c r="T50">
+        <v>5923722000</v>
+      </c>
+      <c r="U50">
+        <v>6261430300</v>
+      </c>
+      <c r="V50">
+        <v>6257621000</v>
+      </c>
+      <c r="W50">
+        <v>7219807700</v>
+      </c>
+      <c r="X50">
+        <v>7444077600</v>
+      </c>
+      <c r="Y50">
+        <v>8122906000</v>
+      </c>
+      <c r="Z50">
+        <v>8249623000</v>
+      </c>
+      <c r="AA50">
+        <v>8788718000</v>
+      </c>
+      <c r="AB50">
+        <v>9198464000</v>
+      </c>
+      <c r="AC50">
+        <v>9519824000</v>
+      </c>
+      <c r="AD50">
+        <v>9974219000</v>
+      </c>
+      <c r="AE50">
+        <v>10453612000</v>
+      </c>
+      <c r="AF50">
+        <v>11009110000</v>
+      </c>
+      <c r="AG50">
+        <v>11362847000</v>
+      </c>
+      <c r="AH50">
+        <v>11267770000</v>
+      </c>
+      <c r="AI50">
+        <v>11526373000</v>
+      </c>
+      <c r="AJ50">
+        <v>12342981000</v>
+      </c>
+      <c r="AK50">
+        <v>13104764000</v>
+      </c>
+      <c r="AL50">
+        <v>13871695000</v>
+      </c>
+      <c r="AM50">
+        <v>14607651000</v>
+      </c>
+      <c r="AN50">
+        <v>15301001000</v>
+      </c>
+      <c r="AO50">
+        <v>16028741000</v>
+      </c>
+      <c r="AP50">
+        <v>15830714000</v>
+      </c>
+      <c r="AQ50">
+        <v>16313965000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51">
+        <v>5198144500</v>
+      </c>
+      <c r="C51">
+        <v>5631772700</v>
+      </c>
+      <c r="D51">
+        <v>5844618000</v>
+      </c>
+      <c r="E51">
+        <v>5670600000</v>
+      </c>
+      <c r="F51">
+        <v>6219578400</v>
+      </c>
+      <c r="G51">
+        <v>6601766000</v>
+      </c>
+      <c r="H51">
+        <v>6903179300</v>
+      </c>
+      <c r="I51">
+        <v>7020231000</v>
+      </c>
+      <c r="J51">
+        <v>7560564700</v>
+      </c>
+      <c r="K51">
+        <v>7887910400</v>
+      </c>
+      <c r="L51">
+        <v>8253518000</v>
+      </c>
+      <c r="M51">
+        <v>8779114000</v>
+      </c>
+      <c r="N51">
+        <v>9139621000</v>
+      </c>
+      <c r="O51">
+        <v>9491483000</v>
+      </c>
+      <c r="P51">
+        <v>10271303000</v>
+      </c>
+      <c r="Q51">
+        <v>10627558000</v>
+      </c>
+      <c r="R51">
+        <v>11193824000</v>
+      </c>
+      <c r="S51">
+        <v>11758958000</v>
+      </c>
+      <c r="T51">
+        <v>12113653000</v>
+      </c>
+      <c r="U51">
+        <v>12648177000</v>
+      </c>
+      <c r="V51">
+        <v>13432364000</v>
+      </c>
+      <c r="W51">
+        <v>14077103000</v>
+      </c>
+      <c r="X51">
+        <v>14094015000</v>
+      </c>
+      <c r="Y51">
+        <v>14650030000</v>
+      </c>
+      <c r="Z51">
+        <v>15336032000</v>
+      </c>
+      <c r="AA51">
+        <v>15869601000</v>
+      </c>
+      <c r="AB51">
+        <v>16403552000</v>
+      </c>
+      <c r="AC51">
+        <v>16963169000</v>
+      </c>
+      <c r="AD51">
+        <v>17998709000</v>
+      </c>
+      <c r="AE51">
+        <v>18814605000</v>
+      </c>
+      <c r="AF51">
+        <v>19720794000</v>
+      </c>
+      <c r="AG51">
+        <v>20395606000</v>
+      </c>
+      <c r="AH51">
+        <v>21348106000</v>
+      </c>
+      <c r="AI51">
+        <v>22100658000</v>
+      </c>
+      <c r="AJ51">
+        <v>23429237000</v>
+      </c>
+      <c r="AK51">
+        <v>24360796000</v>
+      </c>
+      <c r="AL51">
+        <v>24466305000</v>
+      </c>
+      <c r="AM51">
+        <v>26662713000</v>
+      </c>
+      <c r="AN51">
+        <v>28695046000</v>
+      </c>
+      <c r="AO51">
+        <v>30605292000</v>
+      </c>
+      <c r="AP51">
+        <v>29880062000</v>
+      </c>
+      <c r="AQ51">
+        <v>31149050000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>72847250000</v>
+      </c>
+      <c r="C52">
+        <v>76238960000</v>
+      </c>
+      <c r="D52">
+        <v>76947750000</v>
+      </c>
+      <c r="E52">
+        <v>79634580000</v>
+      </c>
+      <c r="F52">
+        <v>83451716000</v>
+      </c>
+      <c r="G52">
+        <v>84799816000</v>
+      </c>
+      <c r="H52">
+        <v>87094000000</v>
+      </c>
+      <c r="I52">
+        <v>87939390000</v>
+      </c>
+      <c r="J52">
+        <v>87627930000</v>
+      </c>
+      <c r="K52">
+        <v>87769230000</v>
+      </c>
+      <c r="L52">
+        <v>87903490000</v>
+      </c>
+      <c r="M52">
+        <v>86944910000</v>
+      </c>
+      <c r="N52">
+        <v>87896460000</v>
+      </c>
+      <c r="O52">
+        <v>93514450000</v>
+      </c>
+      <c r="P52">
+        <v>98301090000</v>
+      </c>
+      <c r="Q52">
+        <v>102943330000</v>
+      </c>
+      <c r="R52">
+        <v>106665230000</v>
+      </c>
+      <c r="S52">
+        <v>108851700000</v>
+      </c>
+      <c r="T52">
+        <v>109719720000</v>
+      </c>
+      <c r="U52">
+        <v>115700690000</v>
+      </c>
+      <c r="V52">
+        <v>119061955000</v>
+      </c>
+      <c r="W52">
+        <v>123186650000</v>
+      </c>
+      <c r="X52">
+        <v>128945150000</v>
+      </c>
+      <c r="Y52">
+        <v>134812150000</v>
+      </c>
+      <c r="Z52">
+        <v>140242780000</v>
+      </c>
+      <c r="AA52">
+        <v>144899850000</v>
+      </c>
+      <c r="AB52">
+        <v>149074510000</v>
+      </c>
+      <c r="AC52">
+        <v>153588730000</v>
+      </c>
+      <c r="AD52">
+        <v>151881550000</v>
+      </c>
+      <c r="AE52">
+        <v>151676260000</v>
+      </c>
+      <c r="AF52">
+        <v>153987610000</v>
+      </c>
+      <c r="AG52">
+        <v>157455040000</v>
+      </c>
+      <c r="AH52">
+        <v>160990380000</v>
+      </c>
+      <c r="AI52">
+        <v>165329750000</v>
+      </c>
+      <c r="AJ52">
+        <v>171637780000</v>
+      </c>
+      <c r="AK52">
+        <v>178064470000</v>
+      </c>
+      <c r="AL52">
+        <v>184772950000</v>
+      </c>
+      <c r="AM52">
+        <v>191384650000</v>
+      </c>
+      <c r="AN52">
+        <v>197813680000</v>
+      </c>
+      <c r="AO52">
+        <v>202150690000</v>
+      </c>
+      <c r="AP52">
+        <v>199618430000</v>
+      </c>
+      <c r="AQ52">
+        <v>207032270000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53">
+        <v>160616330000</v>
+      </c>
+      <c r="C53">
+        <v>139530810000</v>
+      </c>
+      <c r="D53">
+        <v>130037980000</v>
+      </c>
+      <c r="E53">
+        <v>115832520000</v>
+      </c>
+      <c r="F53">
+        <v>114540265000</v>
+      </c>
+      <c r="G53">
+        <v>121313070000</v>
+      </c>
+      <c r="H53">
+        <v>121387000000</v>
+      </c>
+      <c r="I53">
+        <v>125271540000</v>
+      </c>
+      <c r="J53">
+        <v>134458980000</v>
+      </c>
+      <c r="K53">
+        <v>137039766000</v>
+      </c>
+      <c r="L53">
+        <v>153178780000</v>
+      </c>
+      <c r="M53">
+        <v>153727700000</v>
+      </c>
+      <c r="N53">
+        <v>160847130000</v>
+      </c>
+      <c r="O53">
+        <v>157573700000</v>
+      </c>
+      <c r="P53">
+        <v>154713850000</v>
+      </c>
+      <c r="Q53">
+        <v>154601440000</v>
+      </c>
+      <c r="R53">
+        <v>161088390000</v>
+      </c>
+      <c r="S53">
+        <v>165819710000</v>
+      </c>
+      <c r="T53">
+        <v>170099950000</v>
+      </c>
+      <c r="U53">
+        <v>171093540000</v>
+      </c>
+      <c r="V53">
+        <v>179675480000</v>
+      </c>
+      <c r="W53">
+        <v>190308100000</v>
+      </c>
+      <c r="X53">
+        <v>219480740000</v>
+      </c>
+      <c r="Y53">
+        <v>235606430000</v>
+      </c>
+      <c r="Z53">
+        <v>257401320000</v>
+      </c>
+      <c r="AA53">
+        <v>273974150000</v>
+      </c>
+      <c r="AB53">
+        <v>290575420000</v>
+      </c>
+      <c r="AC53">
+        <v>309727630000</v>
+      </c>
+      <c r="AD53">
+        <v>330679060000</v>
+      </c>
+      <c r="AE53">
+        <v>357255500000</v>
+      </c>
+      <c r="AF53">
+        <v>385856140000</v>
+      </c>
+      <c r="AG53">
+        <v>406337100000</v>
+      </c>
+      <c r="AH53">
+        <v>423525420000</v>
+      </c>
+      <c r="AI53">
+        <v>451780200000</v>
+      </c>
+      <c r="AJ53">
+        <v>480286240000</v>
+      </c>
+      <c r="AK53">
+        <v>493026770000</v>
+      </c>
+      <c r="AL53">
+        <v>485055200000</v>
+      </c>
+      <c r="AM53">
+        <v>488964200000</v>
+      </c>
+      <c r="AN53">
+        <v>498365760000</v>
+      </c>
+      <c r="AO53">
+        <v>509371840000</v>
+      </c>
+      <c r="AP53">
+        <v>500232420000</v>
+      </c>
+      <c r="AQ53">
+        <v>518476820000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54">
+        <v>54119020000</v>
+      </c>
+      <c r="C54">
+        <v>58405660000</v>
+      </c>
+      <c r="D54">
+        <v>62223920000</v>
+      </c>
+      <c r="E54">
+        <v>66441690000</v>
+      </c>
+      <c r="F54">
+        <v>69807100000</v>
+      </c>
+      <c r="G54">
+        <v>75106935000</v>
+      </c>
+      <c r="H54">
+        <v>79239060000</v>
+      </c>
+      <c r="I54">
+        <v>84351840000</v>
+      </c>
+      <c r="J54">
+        <v>90783900000</v>
+      </c>
+      <c r="K54">
+        <v>95286570000</v>
+      </c>
+      <c r="L54">
+        <v>99535000000</v>
+      </c>
+      <c r="M54">
+        <v>104573034000</v>
+      </c>
+      <c r="N54">
+        <v>112631325000</v>
+      </c>
+      <c r="O54">
+        <v>114611100000</v>
+      </c>
+      <c r="P54">
+        <v>118894590000</v>
+      </c>
+      <c r="Q54">
+        <v>124794870000</v>
+      </c>
+      <c r="R54">
+        <v>130843160000</v>
+      </c>
+      <c r="S54">
+        <v>132170424000</v>
+      </c>
+      <c r="T54">
+        <v>135541080000</v>
+      </c>
+      <c r="U54">
+        <v>140502060000</v>
+      </c>
+      <c r="V54">
+        <v>146487570000</v>
+      </c>
+      <c r="W54">
+        <v>151694360000</v>
+      </c>
+      <c r="X54">
+        <v>155499360000</v>
+      </c>
+      <c r="Y54">
+        <v>164482610000</v>
+      </c>
+      <c r="Z54">
+        <v>176895890000</v>
+      </c>
+      <c r="AA54">
+        <v>188427340000</v>
+      </c>
+      <c r="AB54">
+        <v>199542640000</v>
+      </c>
+      <c r="AC54">
+        <v>209186160000</v>
+      </c>
+      <c r="AD54">
+        <v>212745270000</v>
+      </c>
+      <c r="AE54">
+        <v>218769490000</v>
+      </c>
+      <c r="AF54">
+        <v>222284430000</v>
+      </c>
+      <c r="AG54">
+        <v>228393710000</v>
+      </c>
+      <c r="AH54">
+        <v>236403560000</v>
+      </c>
+      <c r="AI54">
+        <v>246796930000</v>
+      </c>
+      <c r="AJ54">
+        <v>258333970000</v>
+      </c>
+      <c r="AK54">
+        <v>270556140000</v>
+      </c>
+      <c r="AL54">
+        <v>285509060000</v>
+      </c>
+      <c r="AM54">
+        <v>298164620000</v>
+      </c>
+      <c r="AN54">
+        <v>316506800000</v>
+      </c>
+      <c r="AO54">
+        <v>324411980000</v>
+      </c>
+      <c r="AP54">
+        <v>320278700000</v>
+      </c>
+      <c r="AQ54">
+        <v>341055470000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55">
+        <v>10968933000</v>
+      </c>
+      <c r="C55">
+        <v>11974835000</v>
+      </c>
+      <c r="D55">
+        <v>11807473000</v>
+      </c>
+      <c r="E55">
+        <v>11448217000</v>
+      </c>
+      <c r="F55">
+        <v>11770667000</v>
+      </c>
+      <c r="G55">
+        <v>12303070000</v>
+      </c>
+      <c r="H55">
+        <v>12913897000</v>
+      </c>
+      <c r="I55">
+        <v>13893069000</v>
+      </c>
+      <c r="J55">
+        <v>14714895000</v>
+      </c>
+      <c r="K55">
+        <v>15735404000</v>
+      </c>
+      <c r="L55">
+        <v>16384218000</v>
+      </c>
+      <c r="M55">
+        <v>16956626000</v>
+      </c>
+      <c r="N55">
+        <v>17244283000</v>
+      </c>
+      <c r="O55">
+        <v>18095522000</v>
+      </c>
+      <c r="P55">
+        <v>19057828000</v>
+      </c>
+      <c r="Q55">
+        <v>20358107000</v>
+      </c>
+      <c r="R55">
+        <v>20678500000</v>
+      </c>
+      <c r="S55">
+        <v>21555788000</v>
+      </c>
+      <c r="T55">
+        <v>21570454000</v>
+      </c>
+      <c r="U55">
+        <v>21275785000</v>
+      </c>
+      <c r="V55">
+        <v>20783434000</v>
+      </c>
+      <c r="W55">
+        <v>20610089000</v>
+      </c>
+      <c r="X55">
+        <v>20605678000</v>
+      </c>
+      <c r="Y55">
+        <v>21495996000</v>
+      </c>
+      <c r="Z55">
+        <v>22368178000</v>
+      </c>
+      <c r="AA55">
+        <v>22845401000</v>
+      </c>
+      <c r="AB55">
+        <v>23943606000</v>
+      </c>
+      <c r="AC55">
+        <v>25241737000</v>
+      </c>
+      <c r="AD55">
+        <v>26881516000</v>
+      </c>
+      <c r="AE55">
+        <v>26811318000</v>
+      </c>
+      <c r="AF55">
+        <v>29786096000</v>
+      </c>
+      <c r="AG55">
+        <v>31062837000</v>
+      </c>
+      <c r="AH55">
+        <v>30842900000</v>
+      </c>
+      <c r="AI55">
+        <v>33400726000</v>
+      </c>
+      <c r="AJ55">
+        <v>35171377000</v>
+      </c>
+      <c r="AK55">
+        <v>36211450000</v>
+      </c>
+      <c r="AL55">
+        <v>37756960000</v>
+      </c>
+      <c r="AM55">
+        <v>39573103000</v>
+      </c>
+      <c r="AN55">
+        <v>40841120000</v>
+      </c>
+      <c r="AO55">
+        <v>40677000000</v>
+      </c>
+      <c r="AP55">
+        <v>40343536000</v>
+      </c>
+      <c r="AQ55">
+        <v>41998594000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56">
+        <v>2219861200</v>
+      </c>
+      <c r="C56">
+        <v>2340537300</v>
+      </c>
+      <c r="D56">
+        <v>2382921000</v>
+      </c>
+      <c r="E56">
+        <v>2525428000</v>
+      </c>
+      <c r="F56">
+        <v>2418330400</v>
+      </c>
+      <c r="G56">
+        <v>2524803300</v>
+      </c>
+      <c r="H56">
+        <v>2662964000</v>
+      </c>
+      <c r="I56">
+        <v>2662324000</v>
+      </c>
+      <c r="J56">
+        <v>2782097200</v>
+      </c>
+      <c r="K56">
+        <v>2781080800</v>
+      </c>
+      <c r="L56">
+        <v>2714354400</v>
+      </c>
+      <c r="M56">
+        <v>2646105300</v>
+      </c>
+      <c r="N56">
+        <v>2801503700</v>
+      </c>
+      <c r="O56">
+        <v>2574338600</v>
+      </c>
+      <c r="P56">
+        <v>1280783200</v>
+      </c>
+      <c r="Q56">
+        <v>1731927300</v>
+      </c>
+      <c r="R56">
+        <v>1952673400</v>
+      </c>
+      <c r="S56">
+        <v>2223114000</v>
+      </c>
+      <c r="T56">
+        <v>2420052200</v>
+      </c>
+      <c r="U56">
+        <v>2525370000</v>
+      </c>
+      <c r="V56">
+        <v>2736766700</v>
+      </c>
+      <c r="W56">
+        <v>2968968400</v>
+      </c>
+      <c r="X56">
+        <v>3360637000</v>
+      </c>
+      <c r="Y56">
+        <v>3434651600</v>
+      </c>
+      <c r="Z56">
+        <v>3690453500</v>
+      </c>
+      <c r="AA56">
+        <v>4036540700</v>
+      </c>
+      <c r="AB56">
+        <v>4408994300</v>
+      </c>
+      <c r="AC56">
+        <v>4745546000</v>
+      </c>
+      <c r="AD56">
+        <v>5275208000</v>
+      </c>
+      <c r="AE56">
+        <v>5604817000</v>
+      </c>
+      <c r="AF56">
+        <v>6015911000</v>
+      </c>
+      <c r="AG56">
+        <v>6494680600</v>
+      </c>
+      <c r="AH56">
+        <v>7055919600</v>
+      </c>
+      <c r="AI56">
+        <v>7388947500</v>
+      </c>
+      <c r="AJ56">
+        <v>7844636000</v>
+      </c>
+      <c r="AK56">
+        <v>8539425000</v>
+      </c>
+      <c r="AL56">
+        <v>9049292000</v>
+      </c>
+      <c r="AM56">
+        <v>9409118000</v>
+      </c>
+      <c r="AN56">
+        <v>10216368000</v>
+      </c>
+      <c r="AO56">
+        <v>11182897000</v>
+      </c>
+      <c r="AP56">
+        <v>10807280000</v>
+      </c>
+      <c r="AQ56">
+        <v>11983601000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57">
+        <v>342888680000</v>
+      </c>
+      <c r="C57">
+        <v>349551030000</v>
+      </c>
+      <c r="D57">
+        <v>277089500000</v>
+      </c>
+      <c r="E57">
+        <v>232612770000</v>
+      </c>
+      <c r="F57">
+        <v>221769650000</v>
+      </c>
+      <c r="G57">
+        <v>200048410000</v>
+      </c>
+      <c r="H57">
+        <v>234082140000</v>
+      </c>
+      <c r="I57">
+        <v>218556660000</v>
+      </c>
+      <c r="J57">
+        <v>247207940000</v>
+      </c>
+      <c r="K57">
+        <v>245964440000</v>
+      </c>
+      <c r="L57">
+        <v>283334870000</v>
+      </c>
+      <c r="M57">
+        <v>325857400000</v>
+      </c>
+      <c r="N57">
+        <v>338851100000</v>
+      </c>
+      <c r="O57">
+        <v>334230060000</v>
+      </c>
+      <c r="P57">
+        <v>336097480000</v>
+      </c>
+      <c r="Q57">
+        <v>336810300000</v>
+      </c>
+      <c r="R57">
+        <v>345693420000</v>
+      </c>
+      <c r="S57">
+        <v>349509120000</v>
+      </c>
+      <c r="T57">
+        <v>359621700000</v>
+      </c>
+      <c r="U57">
+        <v>346088100000</v>
+      </c>
+      <c r="V57">
+        <v>365557000000</v>
+      </c>
+      <c r="W57">
+        <v>361131050000</v>
+      </c>
+      <c r="X57">
+        <v>350950130000</v>
+      </c>
+      <c r="Y57">
+        <v>390404150000</v>
+      </c>
+      <c r="Z57">
+        <v>421474240000</v>
+      </c>
+      <c r="AA57">
+        <v>444966570000</v>
+      </c>
+      <c r="AB57">
+        <v>457374040000</v>
+      </c>
+      <c r="AC57">
+        <v>465822320000</v>
+      </c>
+      <c r="AD57">
+        <v>494935180000</v>
+      </c>
+      <c r="AE57">
+        <v>484743220000</v>
+      </c>
+      <c r="AF57">
+        <v>509171760000</v>
+      </c>
+      <c r="AG57">
+        <v>560073000000</v>
+      </c>
+      <c r="AH57">
+        <v>590380900000</v>
+      </c>
+      <c r="AI57">
+        <v>606316900000</v>
+      </c>
+      <c r="AJ57">
+        <v>628462600000</v>
+      </c>
+      <c r="AK57">
+        <v>654269740000</v>
+      </c>
+      <c r="AL57">
+        <v>665200360000</v>
+      </c>
+      <c r="AM57">
+        <v>660267700000</v>
+      </c>
+      <c r="AN57">
+        <v>676868000000</v>
+      </c>
+      <c r="AO57">
+        <v>679127200000</v>
+      </c>
+      <c r="AP57">
+        <v>651027150000</v>
+      </c>
+      <c r="AQ57">
+        <v>672126530000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58">
+        <v>5916759600</v>
+      </c>
+      <c r="C58">
+        <v>6223261000</v>
+      </c>
+      <c r="D58">
+        <v>6721768400</v>
+      </c>
+      <c r="E58">
+        <v>6342159400</v>
+      </c>
+      <c r="F58">
+        <v>6591777000</v>
+      </c>
+      <c r="G58">
+        <v>6820055600</v>
+      </c>
+      <c r="H58">
+        <v>7033317400</v>
+      </c>
+      <c r="I58">
+        <v>7473312300</v>
+      </c>
+      <c r="J58">
+        <v>7412287000</v>
+      </c>
+      <c r="K58">
+        <v>7706835500</v>
+      </c>
+      <c r="L58">
+        <v>7649320400</v>
+      </c>
+      <c r="M58">
+        <v>7852790000</v>
+      </c>
+      <c r="N58">
+        <v>7956464600</v>
+      </c>
+      <c r="O58">
+        <v>8064689700</v>
+      </c>
+      <c r="P58">
+        <v>8060857300</v>
+      </c>
+      <c r="Q58">
+        <v>8501672000</v>
+      </c>
+      <c r="R58">
+        <v>8673404000</v>
+      </c>
+      <c r="S58">
+        <v>8937561000</v>
+      </c>
+      <c r="T58">
+        <v>9464742000</v>
+      </c>
+      <c r="U58">
+        <v>10059440000</v>
+      </c>
+      <c r="V58">
+        <v>10450472000</v>
+      </c>
+      <c r="W58">
+        <v>10900977000</v>
+      </c>
+      <c r="X58">
+        <v>10908465000</v>
+      </c>
+      <c r="Y58">
+        <v>11518679000</v>
+      </c>
+      <c r="Z58">
+        <v>12053526000</v>
+      </c>
+      <c r="AA58">
+        <v>12573061000</v>
+      </c>
+      <c r="AB58">
+        <v>12866110000</v>
+      </c>
+      <c r="AC58">
+        <v>13229851000</v>
+      </c>
+      <c r="AD58">
+        <v>13719774000</v>
+      </c>
+      <c r="AE58">
+        <v>14097357000</v>
+      </c>
+      <c r="AF58">
+        <v>14575383000</v>
+      </c>
+      <c r="AG58">
+        <v>14769831000</v>
+      </c>
+      <c r="AH58">
+        <v>15361067000</v>
+      </c>
+      <c r="AI58">
+        <v>15731635000</v>
+      </c>
+      <c r="AJ58">
+        <v>16710784000</v>
+      </c>
+      <c r="AK58">
+        <v>17774766000</v>
+      </c>
+      <c r="AL58">
+        <v>18906964000</v>
+      </c>
+      <c r="AM58">
+        <v>20304894000</v>
+      </c>
+      <c r="AN58">
+        <v>21565673000</v>
+      </c>
+      <c r="AO58">
+        <v>22560635000</v>
+      </c>
+      <c r="AP58">
+        <v>22859676000</v>
+      </c>
+      <c r="AQ58">
+        <v>24246002000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59">
+        <v>33684535000</v>
+      </c>
+      <c r="C59">
+        <v>37327830000</v>
+      </c>
+      <c r="D59">
+        <v>39978906000</v>
+      </c>
+      <c r="E59">
+        <v>43398894000</v>
+      </c>
+      <c r="F59">
+        <v>47214650000</v>
+      </c>
+      <c r="G59">
+        <v>46920643000</v>
+      </c>
+      <c r="H59">
+        <v>47550697000</v>
+      </c>
+      <c r="I59">
+        <v>52685190000</v>
+      </c>
+      <c r="J59">
+        <v>58619437000</v>
+      </c>
+      <c r="K59">
+        <v>64574484000</v>
+      </c>
+      <c r="L59">
+        <v>70916280000</v>
+      </c>
+      <c r="M59">
+        <v>75659444000</v>
+      </c>
+      <c r="N59">
+        <v>80683080000</v>
+      </c>
+      <c r="O59">
+        <v>89929080000</v>
+      </c>
+      <c r="P59">
+        <v>99907330000</v>
+      </c>
+      <c r="Q59">
+        <v>107076080000</v>
+      </c>
+      <c r="R59">
+        <v>115076150000</v>
+      </c>
+      <c r="S59">
+        <v>124646130000</v>
+      </c>
+      <c r="T59">
+        <v>121915110000</v>
+      </c>
+      <c r="U59">
+        <v>128886680000</v>
+      </c>
+      <c r="V59">
+        <v>140535860000</v>
+      </c>
+      <c r="W59">
+        <v>139030920000</v>
+      </c>
+      <c r="X59">
+        <v>144485600000</v>
+      </c>
+      <c r="Y59">
+        <v>151057170000</v>
+      </c>
+      <c r="Z59">
+        <v>166072220000</v>
+      </c>
+      <c r="AA59">
+        <v>178305650000</v>
+      </c>
+      <c r="AB59">
+        <v>194365210000</v>
+      </c>
+      <c r="AC59">
+        <v>211899900000</v>
+      </c>
+      <c r="AD59">
+        <v>215848630000</v>
+      </c>
+      <c r="AE59">
+        <v>216124820000</v>
+      </c>
+      <c r="AF59">
+        <v>247505600000</v>
+      </c>
+      <c r="AG59">
+        <v>262887920000</v>
+      </c>
+      <c r="AH59">
+        <v>274548300000</v>
+      </c>
+      <c r="AI59">
+        <v>287775030000</v>
+      </c>
+      <c r="AJ59">
+        <v>299100540000</v>
+      </c>
+      <c r="AK59">
+        <v>308004160000</v>
+      </c>
+      <c r="AL59">
+        <v>318974330000</v>
+      </c>
+      <c r="AM59">
+        <v>333843100000</v>
+      </c>
+      <c r="AN59">
+        <v>346066120000</v>
+      </c>
+      <c r="AO59">
+        <v>349857870000</v>
+      </c>
+      <c r="AP59">
+        <v>335362880000</v>
+      </c>
+      <c r="AQ59">
+        <v>360897280000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60">
+        <v>15071104000</v>
+      </c>
+      <c r="C60">
+        <v>15930084000</v>
+      </c>
+      <c r="D60">
+        <v>16589828000</v>
+      </c>
+      <c r="E60">
+        <v>17388462000</v>
+      </c>
+      <c r="F60">
+        <v>18275125000</v>
+      </c>
+      <c r="G60">
+        <v>19188773000</v>
+      </c>
+      <c r="H60">
+        <v>20024547000</v>
+      </c>
+      <c r="I60">
+        <v>20370094000</v>
+      </c>
+      <c r="J60">
+        <v>20873781000</v>
+      </c>
+      <c r="K60">
+        <v>21353734000</v>
+      </c>
+      <c r="L60">
+        <v>22720370000</v>
+      </c>
+      <c r="M60">
+        <v>23765506000</v>
+      </c>
+      <c r="N60">
+        <v>24811186000</v>
+      </c>
+      <c r="O60">
+        <v>26523173000</v>
+      </c>
+      <c r="P60">
+        <v>28008450000</v>
+      </c>
+      <c r="Q60">
+        <v>29548937000</v>
+      </c>
+      <c r="R60">
+        <v>30671788000</v>
+      </c>
+      <c r="S60">
+        <v>32636439000</v>
+      </c>
+      <c r="T60">
+        <v>34169836000</v>
+      </c>
+      <c r="U60">
+        <v>35639325000</v>
+      </c>
+      <c r="V60">
+        <v>37777695000</v>
+      </c>
+      <c r="W60">
+        <v>37193875000</v>
+      </c>
+      <c r="X60">
+        <v>38668493000</v>
+      </c>
+      <c r="Y60">
+        <v>40965505000</v>
+      </c>
+      <c r="Z60">
+        <v>43196100000</v>
+      </c>
+      <c r="AA60">
+        <v>45892293000</v>
+      </c>
+      <c r="AB60">
+        <v>49411450000</v>
+      </c>
+      <c r="AC60">
+        <v>52769858000</v>
+      </c>
+      <c r="AD60">
+        <v>55909710000</v>
+      </c>
+      <c r="AE60">
+        <v>57888310000</v>
+      </c>
+      <c r="AF60">
+        <v>62528614000</v>
+      </c>
+      <c r="AG60">
+        <v>67949523000</v>
+      </c>
+      <c r="AH60">
+        <v>73815050000</v>
+      </c>
+      <c r="AI60">
+        <v>76805850000</v>
+      </c>
+      <c r="AJ60">
+        <v>81704510000</v>
+      </c>
+      <c r="AK60">
+        <v>85140960000</v>
+      </c>
+      <c r="AL60">
+        <v>89443670000</v>
+      </c>
+      <c r="AM60">
+        <v>95222340000</v>
+      </c>
+      <c r="AN60">
+        <v>97422060000</v>
+      </c>
+      <c r="AO60">
+        <v>97207255000</v>
+      </c>
+      <c r="AP60">
+        <v>93831930000</v>
+      </c>
+      <c r="AQ60">
+        <v>96953500000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>238138030000</v>
+      </c>
+      <c r="C61">
+        <v>239221150000</v>
+      </c>
+      <c r="D61">
+        <v>242208230000</v>
+      </c>
+      <c r="E61">
+        <v>246811720000</v>
+      </c>
+      <c r="F61">
+        <v>257250700000</v>
+      </c>
+      <c r="G61">
+        <v>262808290000</v>
+      </c>
+      <c r="H61">
+        <v>269881310000</v>
+      </c>
+      <c r="I61">
+        <v>278932720000</v>
+      </c>
+      <c r="J61">
+        <v>286070700000</v>
+      </c>
+      <c r="K61">
+        <v>293665300000</v>
+      </c>
+      <c r="L61">
+        <v>295881540000</v>
+      </c>
+      <c r="M61">
+        <v>292490800000</v>
+      </c>
+      <c r="N61">
+        <v>289102040000</v>
+      </c>
+      <c r="O61">
+        <v>283130300000</v>
+      </c>
+      <c r="P61">
+        <v>294257230000</v>
+      </c>
+      <c r="Q61">
+        <v>305836820000</v>
+      </c>
+      <c r="R61">
+        <v>310667380000</v>
+      </c>
+      <c r="S61">
+        <v>320206500000</v>
+      </c>
+      <c r="T61">
+        <v>334013300000</v>
+      </c>
+      <c r="U61">
+        <v>348199450000</v>
+      </c>
+      <c r="V61">
+        <v>364795850000</v>
+      </c>
+      <c r="W61">
+        <v>370083560000</v>
+      </c>
+      <c r="X61">
+        <v>378214020000</v>
+      </c>
+      <c r="Y61">
+        <v>386950040000</v>
+      </c>
+      <c r="Z61">
+        <v>403731500000</v>
+      </c>
+      <c r="AA61">
+        <v>415273400000</v>
+      </c>
+      <c r="AB61">
+        <v>434636650000</v>
+      </c>
+      <c r="AC61">
+        <v>449584760000</v>
+      </c>
+      <c r="AD61">
+        <v>447559140000</v>
+      </c>
+      <c r="AE61">
+        <v>428136000000</v>
+      </c>
+      <c r="AF61">
+        <v>453619120000</v>
+      </c>
+      <c r="AG61">
+        <v>468113750000</v>
+      </c>
+      <c r="AH61">
+        <v>465359830000</v>
+      </c>
+      <c r="AI61">
+        <v>470887240000</v>
+      </c>
+      <c r="AJ61">
+        <v>483402480000</v>
+      </c>
+      <c r="AK61">
+        <v>505103780000</v>
+      </c>
+      <c r="AL61">
+        <v>515562440000</v>
+      </c>
+      <c r="AM61">
+        <v>528801700000</v>
+      </c>
+      <c r="AN61">
+        <v>539113420000</v>
+      </c>
+      <c r="AO61">
+        <v>549821300000</v>
+      </c>
+      <c r="AP61">
+        <v>537888980000</v>
+      </c>
+      <c r="AQ61">
+        <v>565187300000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62">
+        <v>115650050000</v>
+      </c>
+      <c r="C62">
+        <v>121038390000</v>
+      </c>
+      <c r="D62">
+        <v>112905440000</v>
+      </c>
+      <c r="E62">
+        <v>107547150000</v>
+      </c>
+      <c r="F62">
+        <v>111867265000</v>
+      </c>
+      <c r="G62">
+        <v>107846220000</v>
+      </c>
+      <c r="H62">
+        <v>91714440000</v>
+      </c>
+      <c r="I62">
+        <v>94816210000</v>
+      </c>
+      <c r="J62">
+        <v>92333060000</v>
+      </c>
+      <c r="K62">
+        <v>103725010000</v>
+      </c>
+      <c r="L62">
+        <v>122735714000</v>
+      </c>
+      <c r="M62">
+        <v>123791335000</v>
+      </c>
+      <c r="N62">
+        <v>127932090000</v>
+      </c>
+      <c r="O62">
+        <v>129545560000</v>
+      </c>
+      <c r="P62">
+        <v>138479200000</v>
+      </c>
+      <c r="Q62">
+        <v>147740540000</v>
+      </c>
+      <c r="R62">
+        <v>156307140000</v>
+      </c>
+      <c r="S62">
+        <v>169109320000</v>
+      </c>
+      <c r="T62">
+        <v>169603100000</v>
+      </c>
+      <c r="U62">
+        <v>174525350000</v>
+      </c>
+      <c r="V62">
+        <v>193466070000</v>
+      </c>
+      <c r="W62">
+        <v>196172820000</v>
+      </c>
+      <c r="X62">
+        <v>200946610000</v>
+      </c>
+      <c r="Y62">
+        <v>218631000000</v>
+      </c>
+      <c r="Z62">
+        <v>239546190000</v>
+      </c>
+      <c r="AA62">
+        <v>251176500000</v>
+      </c>
+      <c r="AB62">
+        <v>275885520000</v>
+      </c>
+      <c r="AC62">
+        <v>284670800000</v>
+      </c>
+      <c r="AD62">
+        <v>293757030000</v>
+      </c>
+      <c r="AE62">
+        <v>278355570000</v>
+      </c>
+      <c r="AF62">
+        <v>282817200000</v>
+      </c>
+      <c r="AG62">
+        <v>302412200000</v>
+      </c>
+      <c r="AH62">
+        <v>316857320000</v>
+      </c>
+      <c r="AI62">
+        <v>332876220000</v>
+      </c>
+      <c r="AJ62">
+        <v>346742820000</v>
+      </c>
+      <c r="AK62">
+        <v>370275500000</v>
+      </c>
+      <c r="AL62">
+        <v>390868300000</v>
+      </c>
+      <c r="AM62">
+        <v>393741470000</v>
+      </c>
+      <c r="AN62">
+        <v>398914880000</v>
+      </c>
+      <c r="AO62">
+        <v>403336230000</v>
+      </c>
+      <c r="AP62">
+        <v>383342640000</v>
+      </c>
+      <c r="AQ62">
+        <v>398355500000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63">
+        <v>10836657000</v>
+      </c>
+      <c r="C63">
+        <v>12193995000</v>
+      </c>
+      <c r="D63">
+        <v>12515220000</v>
+      </c>
+      <c r="E63">
+        <v>12713626000</v>
+      </c>
+      <c r="F63">
+        <v>12471131000</v>
+      </c>
+      <c r="G63">
+        <v>13337174000</v>
+      </c>
+      <c r="H63">
+        <v>13617125000</v>
+      </c>
+      <c r="I63">
+        <v>13773823000</v>
+      </c>
+      <c r="J63">
+        <v>14814074000</v>
+      </c>
+      <c r="K63">
+        <v>15584371000</v>
+      </c>
+      <c r="L63">
+        <v>16673493000</v>
+      </c>
+      <c r="M63">
+        <v>17595834000</v>
+      </c>
+      <c r="N63">
+        <v>16009469000</v>
+      </c>
+      <c r="O63">
+        <v>16177802000</v>
+      </c>
+      <c r="P63">
+        <v>17671854000</v>
+      </c>
+      <c r="Q63">
+        <v>17699780000</v>
+      </c>
+      <c r="R63">
+        <v>19533600000</v>
+      </c>
+      <c r="S63">
+        <v>20057217000</v>
+      </c>
+      <c r="T63">
+        <v>20635910000</v>
+      </c>
+      <c r="U63">
+        <v>20467147000</v>
+      </c>
+      <c r="V63">
+        <v>19841018000</v>
+      </c>
+      <c r="W63">
+        <v>20126652000</v>
+      </c>
+      <c r="X63">
+        <v>18336582000</v>
+      </c>
+      <c r="Y63">
+        <v>15220267000</v>
+      </c>
+      <c r="Z63">
+        <v>14336344000</v>
+      </c>
+      <c r="AA63">
+        <v>13517583000</v>
+      </c>
+      <c r="AB63">
+        <v>13049673000</v>
+      </c>
+      <c r="AC63">
+        <v>12572926000</v>
+      </c>
+      <c r="AD63">
+        <v>10351422000</v>
+      </c>
+      <c r="AE63">
+        <v>11595617000</v>
+      </c>
+      <c r="AF63">
+        <v>14083116000</v>
+      </c>
+      <c r="AG63">
+        <v>16142097000</v>
+      </c>
+      <c r="AH63">
+        <v>18683650000</v>
+      </c>
+      <c r="AI63">
+        <v>19280916000</v>
+      </c>
+      <c r="AJ63">
+        <v>19567150000</v>
+      </c>
+      <c r="AK63">
+        <v>19963120000</v>
+      </c>
+      <c r="AL63">
+        <v>20142980000</v>
+      </c>
+      <c r="AM63">
+        <v>20964866000</v>
+      </c>
+      <c r="AN63">
+        <v>22015179000</v>
+      </c>
+      <c r="AO63">
+        <v>20621079000</v>
+      </c>
+      <c r="AP63">
+        <v>19009139000</v>
+      </c>
+      <c r="AQ63">
+        <v>20618836000</v>
       </c>
     </row>
   </sheetData>
